--- a/capiq_data/in_process_data/IQ325643.xlsx
+++ b/capiq_data/in_process_data/IQ325643.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332E5E6C-BA44-4E95-9708-35909F888857}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B392266F-E256-4440-997F-A9B2063E716E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"e361392f-4736-40a5-bed3-84f96442ede2"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"604d8391-79f8-4381-a294-3f9666ed085f"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>31.9</v>
+        <v>30.08</v>
       </c>
       <c r="D2">
-        <v>1604.498</v>
+        <v>642.11900000000003</v>
       </c>
       <c r="E2">
-        <v>266.70999999999998</v>
+        <v>53.609000000000002</v>
       </c>
       <c r="F2">
-        <v>497.50900000000001</v>
+        <v>228.32599999999999</v>
       </c>
       <c r="G2">
-        <v>1015.071</v>
+        <v>310.71899999999999</v>
       </c>
       <c r="H2">
-        <v>19653.829000000002</v>
+        <v>7828.4650000000001</v>
       </c>
       <c r="I2">
-        <v>249.047</v>
+        <v>158.143</v>
       </c>
       <c r="J2">
-        <v>7951.1869999999999</v>
+        <v>3300.17</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3445.1729999999998</v>
+        <v>912.38</v>
       </c>
       <c r="O2">
-        <v>11753.076999999999</v>
+        <v>4212.55</v>
       </c>
       <c r="P2">
-        <v>9150.116</v>
+        <v>3410.096</v>
       </c>
       <c r="Q2">
-        <v>-22.001000000000001</v>
+        <v>-17.766999999999999</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>57200</v>
+        <v>25700</v>
       </c>
       <c r="T2">
-        <v>7900.7520000000004</v>
+        <v>3615.915</v>
       </c>
       <c r="U2">
-        <v>419.92899999999997</v>
+        <v>177.81</v>
       </c>
       <c r="V2">
-        <v>227.11199999999999</v>
+        <v>58.19</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>1098.278</v>
+        <v>59.747999999999998</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,39 +931,39 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>31.9</v>
+        <v>30.08</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>78.41</v>
+        <v>52.497</v>
       </c>
       <c r="D3">
-        <v>1671.9949999999999</v>
+        <v>726.87800000000004</v>
       </c>
       <c r="E3">
-        <v>276.88499999999999</v>
+        <v>62.545999999999999</v>
       </c>
       <c r="F3">
-        <v>570.92399999999998</v>
+        <v>270.53899999999999</v>
       </c>
       <c r="G3">
-        <v>1214.6859999999999</v>
+        <v>465.53800000000001</v>
       </c>
       <c r="H3">
-        <v>19775.491999999998</v>
+        <v>8886.1720000000005</v>
       </c>
       <c r="I3">
-        <v>334.98500000000001</v>
+        <v>159.29499999999999</v>
       </c>
       <c r="J3">
-        <v>8023.8549999999996</v>
+        <v>4146.1450000000004</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-944.26900000000001</v>
+        <v>-275.28100000000001</v>
       </c>
       <c r="N3">
-        <v>3010.8760000000002</v>
+        <v>1024.4010000000001</v>
       </c>
       <c r="O3">
-        <v>11497.509</v>
+        <v>5239.6270000000004</v>
       </c>
       <c r="P3">
-        <v>8779.277</v>
+        <v>4256.1970000000001</v>
       </c>
       <c r="Q3">
-        <v>50.329000000000001</v>
+        <v>107.914</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>8277.9830000000002</v>
+        <v>3646.5450000000001</v>
       </c>
       <c r="U3">
-        <v>470.25799999999998</v>
+        <v>285.72399999999999</v>
       </c>
       <c r="V3">
-        <v>285.41899999999998</v>
+        <v>180.72200000000001</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-24.986000000000001</v>
       </c>
       <c r="X3">
-        <v>-452.66800000000001</v>
+        <v>755.37800000000004</v>
       </c>
       <c r="Y3">
-        <v>52.938000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>78.41</v>
+        <v>52.497</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>93.491</v>
+        <v>81.712999999999994</v>
       </c>
       <c r="D4">
-        <v>1767.873</v>
+        <v>821.67399999999998</v>
       </c>
       <c r="E4">
-        <v>273.70800000000003</v>
+        <v>78.262</v>
       </c>
       <c r="F4">
-        <v>582.49800000000005</v>
+        <v>317.67099999999999</v>
       </c>
       <c r="G4">
-        <v>1326.876</v>
+        <v>1005.768</v>
       </c>
       <c r="H4">
-        <v>19948.498</v>
+        <v>9588.6010000000006</v>
       </c>
       <c r="I4">
-        <v>343.16199999999998</v>
+        <v>166.928</v>
       </c>
       <c r="J4">
-        <v>7851.2039999999997</v>
+        <v>4714.2020000000002</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3287.93</v>
+        <v>1080.325</v>
       </c>
       <c r="O4">
-        <v>11600.218999999999</v>
+        <v>5886.12</v>
       </c>
       <c r="P4">
-        <v>8604.8909999999996</v>
+        <v>4759.95</v>
       </c>
       <c r="Q4">
-        <v>81.201999999999998</v>
+        <v>533.36300000000006</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>8348.2790000000005</v>
+        <v>3702.4810000000002</v>
       </c>
       <c r="U4">
-        <v>551.46</v>
+        <v>819.08699999999999</v>
       </c>
       <c r="V4">
-        <v>481.32299999999998</v>
+        <v>274.54399999999998</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-24.986000000000001</v>
       </c>
       <c r="X4">
-        <v>-231.65600000000001</v>
+        <v>477.73399999999998</v>
       </c>
       <c r="Y4">
-        <v>50.442</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>93.491</v>
+        <v>81.712999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>398.95800000000003</v>
+        <v>159.21199999999999</v>
       </c>
       <c r="D5">
-        <v>2321.9940000000001</v>
+        <v>940.721</v>
       </c>
       <c r="E5">
-        <v>303.91899999999998</v>
+        <v>66.509</v>
       </c>
       <c r="F5">
-        <v>916.69399999999996</v>
+        <v>411.565</v>
       </c>
       <c r="G5">
-        <v>1223.1179999999999</v>
+        <v>927.02300000000002</v>
       </c>
       <c r="H5">
-        <v>20170.026000000002</v>
+        <v>9901.4330000000009</v>
       </c>
       <c r="I5">
-        <v>323.08199999999999</v>
+        <v>157.66499999999999</v>
       </c>
       <c r="J5">
-        <v>8086.63</v>
+        <v>5095.2479999999996</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3115.241</v>
+        <v>924.39300000000003</v>
       </c>
       <c r="O5">
-        <v>11731.93</v>
+        <v>6068.2719999999999</v>
       </c>
       <c r="P5">
-        <v>8775.7029999999995</v>
+        <v>5141.085</v>
       </c>
       <c r="Q5">
-        <v>-100</v>
+        <v>-54.497</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>8438.0959999999995</v>
+        <v>3833.1610000000001</v>
       </c>
       <c r="U5">
-        <v>451.46</v>
+        <v>764.59</v>
       </c>
       <c r="V5">
-        <v>505.976</v>
+        <v>118.514</v>
       </c>
       <c r="W5">
-        <v>-21.707000000000001</v>
+        <v>-24.997</v>
       </c>
       <c r="X5">
-        <v>233.31200000000001</v>
+        <v>-27.114000000000001</v>
       </c>
       <c r="Y5">
-        <v>49.576000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>398.95800000000003</v>
+        <v>159.21199999999999</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>36.561999999999998</v>
+        <v>-38.965000000000003</v>
       </c>
       <c r="D6">
-        <v>1775.4010000000001</v>
+        <v>655.97699999999998</v>
       </c>
       <c r="E6">
-        <v>292.447</v>
+        <v>72.195999999999998</v>
       </c>
       <c r="F6">
-        <v>524.54</v>
+        <v>211.084</v>
       </c>
       <c r="G6">
-        <v>969.28800000000001</v>
+        <v>886.11400000000003</v>
       </c>
       <c r="H6">
-        <v>19804.404999999999</v>
+        <v>10368.781999999999</v>
       </c>
       <c r="I6">
-        <v>304.62299999999999</v>
+        <v>144.07</v>
       </c>
       <c r="J6">
-        <v>7868.3310000000001</v>
+        <v>5407.5309999999999</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3067.6419999999998</v>
+        <v>1112.6489999999999</v>
       </c>
       <c r="O6">
-        <v>11396.582</v>
+        <v>6612.1980000000003</v>
       </c>
       <c r="P6">
-        <v>8507.2219999999998</v>
+        <v>5646.1120000000001</v>
       </c>
       <c r="Q6">
-        <v>-189.274</v>
+        <v>-37.411999999999999</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>60300</v>
+        <v>24000</v>
       </c>
       <c r="T6">
-        <v>8407.8230000000003</v>
+        <v>3756.5839999999998</v>
       </c>
       <c r="U6">
-        <v>262.18599999999998</v>
+        <v>727.178</v>
       </c>
       <c r="V6">
-        <v>183.02099999999999</v>
+        <v>59.908999999999999</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>-24.986000000000001</v>
       </c>
       <c r="X6">
-        <v>-225.50299999999999</v>
+        <v>493.65300000000002</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,39 +1263,39 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>36.561999999999998</v>
+        <v>-38.965000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>46.963999999999999</v>
+        <v>52.813000000000002</v>
       </c>
       <c r="D7">
-        <v>1834.48</v>
+        <v>799.95299999999997</v>
       </c>
       <c r="E7">
-        <v>313.00099999999998</v>
+        <v>74.52</v>
       </c>
       <c r="F7">
-        <v>579.36800000000005</v>
+        <v>297.315</v>
       </c>
       <c r="G7">
-        <v>1123.4970000000001</v>
+        <v>852.42499999999995</v>
       </c>
       <c r="H7">
-        <v>20028.958999999999</v>
+        <v>10309.535</v>
       </c>
       <c r="I7">
-        <v>291.03399999999999</v>
+        <v>154.32</v>
       </c>
       <c r="J7">
-        <v>7862.6480000000001</v>
+        <v>5234.6930000000002</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-131.81</v>
+        <v>-178.01400000000001</v>
       </c>
       <c r="N7">
-        <v>3099.8739999999998</v>
+        <v>1204.7639999999999</v>
       </c>
       <c r="O7">
-        <v>11436.388999999999</v>
+        <v>6509.3249999999998</v>
       </c>
       <c r="P7">
-        <v>8546.4889999999996</v>
+        <v>5471.9629999999997</v>
       </c>
       <c r="Q7">
-        <v>15.347</v>
+        <v>-97.361000000000004</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>8592.57</v>
+        <v>3800.21</v>
       </c>
       <c r="U7">
-        <v>277.53300000000002</v>
+        <v>629.81700000000001</v>
       </c>
       <c r="V7">
-        <v>215.215</v>
+        <v>177.05199999999999</v>
       </c>
       <c r="W7">
-        <v>-43.506</v>
+        <v>-25.004000000000001</v>
       </c>
       <c r="X7">
-        <v>-44.594999999999999</v>
+        <v>-187.19399999999999</v>
       </c>
       <c r="Y7">
-        <v>44.475999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>46.963999999999999</v>
+        <v>52.813000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>-3.653</v>
+        <v>66.7</v>
       </c>
       <c r="D8">
-        <v>1821.0039999999999</v>
+        <v>821.80399999999997</v>
       </c>
       <c r="E8">
-        <v>284.65800000000002</v>
+        <v>87.513999999999996</v>
       </c>
       <c r="F8">
-        <v>524.99</v>
+        <v>322.93900000000002</v>
       </c>
       <c r="G8">
-        <v>954.14800000000002</v>
+        <v>804.03</v>
       </c>
       <c r="H8">
-        <v>19696.103999999999</v>
+        <v>10581.325000000001</v>
       </c>
       <c r="I8">
-        <v>316.40899999999999</v>
+        <v>160.21299999999999</v>
       </c>
       <c r="J8">
-        <v>7064.3050000000003</v>
+        <v>5336.7560000000003</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3809.1120000000001</v>
+        <v>1379.567</v>
       </c>
       <c r="O8">
-        <v>11424.43</v>
+        <v>6731.6289999999999</v>
       </c>
       <c r="P8">
-        <v>8266.598</v>
+        <v>5610.3509999999997</v>
       </c>
       <c r="Q8">
-        <v>-65.323999999999998</v>
+        <v>-35.953000000000003</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>8271.6740000000009</v>
+        <v>3849.6959999999999</v>
       </c>
       <c r="U8">
-        <v>212.209</v>
+        <v>593.86400000000003</v>
       </c>
       <c r="V8">
-        <v>368.30399999999997</v>
+        <v>321.80900000000003</v>
       </c>
       <c r="W8">
-        <v>-21.786999999999999</v>
+        <v>-25.013999999999999</v>
       </c>
       <c r="X8">
-        <v>-270.471</v>
+        <v>-239.05</v>
       </c>
       <c r="Y8">
-        <v>45.744</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>-3.653</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>367.779</v>
+        <v>193.494</v>
       </c>
       <c r="D9">
-        <v>2226.39</v>
+        <v>1031.6600000000001</v>
       </c>
       <c r="E9">
-        <v>301.11</v>
+        <v>82.358000000000004</v>
       </c>
       <c r="F9">
-        <v>883.56500000000005</v>
+        <v>450.02</v>
       </c>
       <c r="G9">
-        <v>1033.18</v>
+        <v>841.43100000000004</v>
       </c>
       <c r="H9">
-        <v>19668.222000000002</v>
+        <v>10513.14</v>
       </c>
       <c r="I9">
-        <v>361.09399999999999</v>
+        <v>174.99100000000001</v>
       </c>
       <c r="J9">
-        <v>6641.2690000000002</v>
+        <v>5351.7790000000005</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3826.1849999999999</v>
+        <v>1139.211</v>
       </c>
       <c r="O9">
-        <v>10965.561</v>
+        <v>6493.808</v>
       </c>
       <c r="P9">
-        <v>7839.4380000000001</v>
+        <v>5474.1909999999998</v>
       </c>
       <c r="Q9">
-        <v>29.027999999999999</v>
+        <v>47.944000000000003</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>8702.6610000000001</v>
+        <v>4019.3319999999999</v>
       </c>
       <c r="U9">
-        <v>241.23699999999999</v>
+        <v>641.80799999999999</v>
       </c>
       <c r="V9">
-        <v>588.73699999999997</v>
+        <v>217.559</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>-25.023</v>
       </c>
       <c r="X9">
-        <v>-486.40499999999997</v>
+        <v>-201.666</v>
       </c>
       <c r="Y9">
-        <v>43.220999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>367.779</v>
+        <v>193.494</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-392.803</v>
+        <v>38.277000000000001</v>
       </c>
       <c r="D10">
-        <v>1806.15</v>
+        <v>780.93</v>
       </c>
       <c r="E10">
-        <v>281.42099999999999</v>
+        <v>79.534999999999997</v>
       </c>
       <c r="F10">
-        <v>553.16700000000003</v>
+        <v>916.59199999999998</v>
       </c>
       <c r="G10">
-        <v>888.06</v>
+        <v>447.74299999999999</v>
       </c>
       <c r="H10">
-        <v>19827.93</v>
+        <v>10538.531000000001</v>
       </c>
       <c r="I10">
-        <v>351.58699999999999</v>
+        <v>171.15299999999999</v>
       </c>
       <c r="J10">
-        <v>7025.9350000000004</v>
+        <v>5322.2939999999999</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4066.1509999999998</v>
+        <v>1169.933</v>
       </c>
       <c r="O10">
-        <v>11519.181</v>
+        <v>6503.8370000000004</v>
       </c>
       <c r="P10">
-        <v>8545.4179999999997</v>
+        <v>5444.8379999999997</v>
       </c>
       <c r="Q10">
-        <v>-46.381999999999998</v>
+        <v>-399.22399999999999</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>61250</v>
+        <v>27300</v>
       </c>
       <c r="T10">
-        <v>8308.7489999999998</v>
+        <v>4034.694</v>
       </c>
       <c r="U10">
-        <v>194.85499999999999</v>
+        <v>242.584</v>
       </c>
       <c r="V10">
-        <v>209.47800000000001</v>
+        <v>154.05000000000001</v>
       </c>
       <c r="W10">
-        <v>-52.414000000000001</v>
+        <v>-25.085999999999999</v>
       </c>
       <c r="X10">
-        <v>621.85400000000004</v>
+        <v>-30.888000000000002</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,39 +1595,39 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>-392.803</v>
+        <v>38.277000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>76.225999999999999</v>
+        <v>53.173999999999999</v>
       </c>
       <c r="D11">
-        <v>1911.22</v>
+        <v>880.16399999999999</v>
       </c>
       <c r="E11">
-        <v>308.02999999999997</v>
+        <v>103.05800000000001</v>
       </c>
       <c r="F11">
-        <v>629.03</v>
+        <v>510.887</v>
       </c>
       <c r="G11">
-        <v>958.61400000000003</v>
+        <v>427.50700000000001</v>
       </c>
       <c r="H11">
-        <v>19866.100999999999</v>
+        <v>10476.36</v>
       </c>
       <c r="I11">
-        <v>337.44099999999997</v>
+        <v>164.99299999999999</v>
       </c>
       <c r="J11">
-        <v>5974.0780000000004</v>
+        <v>5197.0129999999999</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-106.137</v>
+        <v>-133.26599999999999</v>
       </c>
       <c r="N11">
-        <v>5060.5039999999999</v>
+        <v>1203.7159999999999</v>
       </c>
       <c r="O11">
-        <v>11527.566000000001</v>
+        <v>6414.4080000000004</v>
       </c>
       <c r="P11">
-        <v>8509.6830000000009</v>
+        <v>5319.7529999999997</v>
       </c>
       <c r="Q11">
-        <v>21.033000000000001</v>
+        <v>-91.771000000000001</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>8338.5349999999999</v>
+        <v>4061.9520000000002</v>
       </c>
       <c r="U11">
-        <v>215.88800000000001</v>
+        <v>150.81299999999999</v>
       </c>
       <c r="V11">
-        <v>241.25700000000001</v>
+        <v>126.401</v>
       </c>
       <c r="W11">
-        <v>-27.734999999999999</v>
+        <v>-25.094999999999999</v>
       </c>
       <c r="X11">
-        <v>-25.672000000000001</v>
+        <v>-165.77199999999999</v>
       </c>
       <c r="Y11">
-        <v>44.540999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>-19.486999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>76.225999999999999</v>
+        <v>53.173999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>24.747</v>
+        <v>55.671999999999997</v>
       </c>
       <c r="D12">
-        <v>1882.7670000000001</v>
+        <v>905.84100000000001</v>
       </c>
       <c r="E12">
-        <v>310.05099999999999</v>
+        <v>106.90600000000001</v>
       </c>
       <c r="F12">
-        <v>559.14800000000002</v>
+        <v>517.75400000000002</v>
       </c>
       <c r="G12">
-        <v>953.09400000000005</v>
+        <v>844.31600000000003</v>
       </c>
       <c r="H12">
-        <v>19950.794000000002</v>
+        <v>10882.635</v>
       </c>
       <c r="I12">
-        <v>314.197</v>
+        <v>167.39500000000001</v>
       </c>
       <c r="J12">
-        <v>6364.7830000000004</v>
+        <v>5355.9120000000003</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4712.1750000000002</v>
+        <v>1417.1179999999999</v>
       </c>
       <c r="O12">
-        <v>11584.535</v>
+        <v>6791.2960000000003</v>
       </c>
       <c r="P12">
-        <v>8315.5319999999992</v>
+        <v>5546.8379999999997</v>
       </c>
       <c r="Q12">
-        <v>-10.714</v>
+        <v>378.17</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>8366.259</v>
+        <v>4091.3389999999999</v>
       </c>
       <c r="U12">
-        <v>205.17400000000001</v>
+        <v>528.98299999999995</v>
       </c>
       <c r="V12">
-        <v>431.53100000000001</v>
+        <v>264.46600000000001</v>
       </c>
       <c r="W12">
-        <v>-26.363</v>
+        <v>-25.116</v>
       </c>
       <c r="X12">
-        <v>-192.10400000000001</v>
+        <v>182.1</v>
       </c>
       <c r="Y12">
-        <v>44.280999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>-16.27</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>24.747</v>
+        <v>55.671999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>365.70100000000002</v>
+        <v>191.86699999999999</v>
       </c>
       <c r="D13">
-        <v>2311.7489999999998</v>
+        <v>1120.1990000000001</v>
       </c>
       <c r="E13">
-        <v>342.02100000000002</v>
+        <v>98.591999999999999</v>
       </c>
       <c r="F13">
-        <v>899.74800000000005</v>
+        <v>662.625</v>
       </c>
       <c r="G13">
-        <v>1018.675</v>
+        <v>678.28700000000003</v>
       </c>
       <c r="H13">
-        <v>20086.244999999999</v>
+        <v>11068.003000000001</v>
       </c>
       <c r="I13">
-        <v>396.48200000000003</v>
+        <v>177.60499999999999</v>
       </c>
       <c r="J13">
-        <v>5996.2830000000004</v>
+        <v>5197.0640000000003</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4844.5649999999996</v>
+        <v>1561.0409999999999</v>
       </c>
       <c r="O13">
-        <v>11324.161</v>
+        <v>6782.3850000000002</v>
       </c>
       <c r="P13">
-        <v>7984.3019999999997</v>
+        <v>5521.2830000000004</v>
       </c>
       <c r="Q13">
-        <v>4.3929999999999998</v>
+        <v>-148.94300000000001</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>8762.0840000000007</v>
+        <v>4285.6180000000004</v>
       </c>
       <c r="U13">
-        <v>209.56700000000001</v>
+        <v>380.04</v>
       </c>
       <c r="V13">
-        <v>557.31600000000003</v>
+        <v>300.91399999999999</v>
       </c>
       <c r="W13">
-        <v>-6.0999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-419.83800000000002</v>
+        <v>2.2909999999999999</v>
       </c>
       <c r="Y13">
-        <v>45.17</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>-24.669</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>365.70100000000002</v>
+        <v>191.86699999999999</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>7.0179999999999998</v>
+        <v>-20.048999999999999</v>
       </c>
       <c r="D14">
-        <v>1854.1579999999999</v>
+        <v>878.04499999999996</v>
       </c>
       <c r="E14">
-        <v>259.74599999999998</v>
+        <v>89.489000000000004</v>
       </c>
       <c r="F14">
-        <v>576.49800000000005</v>
+        <v>493.15699999999998</v>
       </c>
       <c r="G14">
-        <v>956.37400000000002</v>
+        <v>574.54999999999995</v>
       </c>
       <c r="H14">
-        <v>20072.947</v>
+        <v>11322.742</v>
       </c>
       <c r="I14">
-        <v>372.226</v>
+        <v>187.756</v>
       </c>
       <c r="J14">
-        <v>6578.3459999999995</v>
+        <v>5520.5720000000001</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4267.01</v>
+        <v>1504.527</v>
       </c>
       <c r="O14">
-        <v>11264.682000000001</v>
+        <v>7059.8450000000003</v>
       </c>
       <c r="P14">
-        <v>8141.7240000000002</v>
+        <v>5835.8040000000001</v>
       </c>
       <c r="Q14">
-        <v>-4.88</v>
+        <v>-49.954000000000001</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>63300</v>
+        <v>35700</v>
       </c>
       <c r="T14">
-        <v>8808.2649999999994</v>
+        <v>4262.8969999999999</v>
       </c>
       <c r="U14">
-        <v>204.68700000000001</v>
+        <v>330.08600000000001</v>
       </c>
       <c r="V14">
-        <v>181.964</v>
+        <v>166.02199999999999</v>
       </c>
       <c r="W14">
-        <v>-89.47</v>
+        <v>-48.109000000000002</v>
       </c>
       <c r="X14">
-        <v>60.988</v>
+        <v>313.72399999999999</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-10.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>7.0179999999999998</v>
+        <v>-20.048999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>26.457000000000001</v>
+        <v>95.846000000000004</v>
       </c>
       <c r="D15">
-        <v>1887.2239999999999</v>
+        <v>1061.684</v>
       </c>
       <c r="E15">
-        <v>299.036</v>
+        <v>88.206000000000003</v>
       </c>
       <c r="F15">
-        <v>583.24400000000003</v>
+        <v>618.11900000000003</v>
       </c>
       <c r="G15">
-        <v>1010.933</v>
+        <v>806.91499999999996</v>
       </c>
       <c r="H15">
-        <v>20126.14</v>
+        <v>11558.477000000001</v>
       </c>
       <c r="I15">
-        <v>359.51799999999997</v>
+        <v>194.78100000000001</v>
       </c>
       <c r="J15">
-        <v>7473.875</v>
+        <v>5509.9070000000002</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-1638.146</v>
+        <v>-24.960999999999999</v>
       </c>
       <c r="N15">
-        <v>3382.779</v>
+        <v>1644.7090000000001</v>
       </c>
       <c r="O15">
-        <v>11349.208000000001</v>
+        <v>7192.6419999999998</v>
       </c>
       <c r="P15">
-        <v>8056.7169999999996</v>
+        <v>5824.1719999999996</v>
       </c>
       <c r="Q15">
-        <v>11.821</v>
+        <v>49.039000000000001</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>8776.9320000000007</v>
+        <v>4365.835</v>
       </c>
       <c r="U15">
-        <v>216.50800000000001</v>
+        <v>552.99699999999996</v>
       </c>
       <c r="V15">
-        <v>315.786</v>
+        <v>313.81799999999998</v>
       </c>
       <c r="W15">
-        <v>-76.263999999999996</v>
+        <v>-28.46</v>
       </c>
       <c r="X15">
-        <v>-107.505</v>
+        <v>-24.050999999999998</v>
       </c>
       <c r="Y15">
-        <v>47.008000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>-34.26</v>
+        <v>-173.87200000000001</v>
       </c>
       <c r="AA15">
-        <v>26.457000000000001</v>
+        <v>95.846000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>137.673</v>
+        <v>122.15900000000001</v>
       </c>
       <c r="D16">
-        <v>1980.0429999999999</v>
+        <v>1142.999</v>
       </c>
       <c r="E16">
-        <v>293.51600000000002</v>
+        <v>94.956999999999994</v>
       </c>
       <c r="F16">
-        <v>649.36900000000003</v>
+        <v>669.41099999999994</v>
       </c>
       <c r="G16">
-        <v>978.34</v>
+        <v>961.12400000000002</v>
       </c>
       <c r="H16">
-        <v>20012.210999999999</v>
+        <v>12013.625</v>
       </c>
       <c r="I16">
-        <v>331.46199999999999</v>
+        <v>195.51499999999999</v>
       </c>
       <c r="J16">
-        <v>7103.7730000000001</v>
+        <v>4896.4250000000002</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>3549.42</v>
+        <v>2597.3119999999999</v>
       </c>
       <c r="O16">
-        <v>11162.971</v>
+        <v>7525.6040000000003</v>
       </c>
       <c r="P16">
-        <v>7645.2349999999997</v>
+        <v>5977.1610000000001</v>
       </c>
       <c r="Q16">
-        <v>-31.245999999999999</v>
+        <v>100.468</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>8849.24</v>
+        <v>4488.0209999999997</v>
       </c>
       <c r="U16">
-        <v>185.262</v>
+        <v>706.33699999999999</v>
       </c>
       <c r="V16">
-        <v>565.14300000000003</v>
+        <v>396.57</v>
       </c>
       <c r="W16">
-        <v>-55.593000000000004</v>
+        <v>-25.861000000000001</v>
       </c>
       <c r="X16">
-        <v>-467.46100000000001</v>
+        <v>169.86699999999999</v>
       </c>
       <c r="Y16">
-        <v>46.883000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>-34.625</v>
+        <v>-52.872</v>
       </c>
       <c r="AA16">
-        <v>137.673</v>
+        <v>122.15900000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>490.24799999999999</v>
+        <v>282.471</v>
       </c>
       <c r="D17">
-        <v>2388.7620000000002</v>
+        <v>1386.107</v>
       </c>
       <c r="E17">
-        <v>252.91800000000001</v>
+        <v>86.700999999999993</v>
       </c>
       <c r="F17">
-        <v>961.88</v>
+        <v>847.90200000000004</v>
       </c>
       <c r="G17">
-        <v>860.226</v>
+        <v>983.31299999999999</v>
       </c>
       <c r="H17">
-        <v>19599.91</v>
+        <v>12001.769</v>
       </c>
       <c r="I17">
-        <v>340.702</v>
+        <v>175.09200000000001</v>
       </c>
       <c r="J17">
-        <v>6218.7120000000004</v>
+        <v>4888.1139999999996</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3737.74</v>
+        <v>2297.6669999999999</v>
       </c>
       <c r="O17">
-        <v>10578.882</v>
+        <v>7223.12</v>
       </c>
       <c r="P17">
-        <v>7036.7619999999997</v>
+        <v>5843.4229999999998</v>
       </c>
       <c r="Q17">
-        <v>-2.081</v>
+        <v>-6.2610000000000001</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>9021.0280000000002</v>
+        <v>4778.6490000000003</v>
       </c>
       <c r="U17">
-        <v>183.18100000000001</v>
+        <v>740.87400000000002</v>
       </c>
       <c r="V17">
-        <v>578.63499999999999</v>
+        <v>250.39599999999999</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>-25.884</v>
       </c>
       <c r="X17">
-        <v>-557.26700000000005</v>
+        <v>-173.13900000000001</v>
       </c>
       <c r="Y17">
-        <v>45.805</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>-0.86299999999999999</v>
+        <v>-40.798000000000002</v>
       </c>
       <c r="AA17">
-        <v>490.24799999999999</v>
+        <v>282.471</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>109.768</v>
+        <v>-25.785</v>
       </c>
       <c r="D18">
-        <v>1817.826</v>
+        <v>964.58500000000004</v>
       </c>
       <c r="E18">
-        <v>261.392</v>
+        <v>84.899000000000001</v>
       </c>
       <c r="F18">
-        <v>592.38099999999997</v>
+        <v>288.065</v>
       </c>
       <c r="G18">
-        <v>801.08299999999997</v>
+        <v>860.60599999999999</v>
       </c>
       <c r="H18">
-        <v>20713.189999999999</v>
+        <v>11964.084000000001</v>
       </c>
       <c r="I18">
-        <v>331.505</v>
+        <v>162.97300000000001</v>
       </c>
       <c r="J18">
-        <v>7710.0860000000002</v>
+        <v>4826.57</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3849.2469999999998</v>
+        <v>2273.502</v>
       </c>
       <c r="O18">
-        <v>12428.831</v>
+        <v>7159.5640000000003</v>
       </c>
       <c r="P18">
-        <v>8509.7160000000003</v>
+        <v>5731.9440000000004</v>
       </c>
       <c r="Q18">
-        <v>6.06</v>
+        <v>155.24600000000001</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>63400</v>
+        <v>38270</v>
       </c>
       <c r="T18">
-        <v>8284.3590000000004</v>
+        <v>4804.5200000000004</v>
       </c>
       <c r="U18">
-        <v>189.24100000000001</v>
+        <v>628.57799999999997</v>
       </c>
       <c r="V18">
-        <v>284.19499999999999</v>
+        <v>116.20699999999999</v>
       </c>
       <c r="W18">
-        <v>-67.094999999999999</v>
+        <v>-24.315999999999999</v>
       </c>
       <c r="X18">
-        <v>1149.713</v>
+        <v>-118.666</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-118.84699999999999</v>
+        <v>267.54199999999997</v>
       </c>
       <c r="AA18">
-        <v>109.768</v>
+        <v>-25.785</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>45.23</v>
+        <v>189.60900000000001</v>
       </c>
       <c r="D19">
-        <v>1815.5989999999999</v>
+        <v>1168.077</v>
       </c>
       <c r="E19">
-        <v>221.673</v>
+        <v>82.239000000000004</v>
       </c>
       <c r="F19">
-        <v>592.98199999999997</v>
+        <v>627.08600000000001</v>
       </c>
       <c r="G19">
-        <v>951.20299999999997</v>
+        <v>562.18799999999999</v>
       </c>
       <c r="H19">
-        <v>20869.593000000001</v>
+        <v>11600.111000000001</v>
       </c>
       <c r="I19">
-        <v>336.86900000000003</v>
+        <v>185.50700000000001</v>
       </c>
       <c r="J19">
-        <v>7503.9440000000004</v>
+        <v>4794.5169999999998</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-587.11099999999999</v>
+        <v>-600.09699999999998</v>
       </c>
       <c r="N19">
-        <v>4336.2910000000002</v>
+        <v>1840.9770000000001</v>
       </c>
       <c r="O19">
-        <v>12895.683000000001</v>
+        <v>6701.6210000000001</v>
       </c>
       <c r="P19">
-        <v>8640.0339999999997</v>
+        <v>5124.9359999999997</v>
       </c>
       <c r="Q19">
-        <v>40.463999999999999</v>
+        <v>-317.238</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>7973.91</v>
+        <v>4898.49</v>
       </c>
       <c r="U19">
-        <v>229.70500000000001</v>
+        <v>311.33999999999997</v>
       </c>
       <c r="V19">
-        <v>426.42700000000002</v>
+        <v>381.70699999999999</v>
       </c>
       <c r="W19">
-        <v>-131.745</v>
+        <v>-28.048999999999999</v>
       </c>
       <c r="X19">
-        <v>19.652999999999999</v>
+        <v>-622.85799999999995</v>
       </c>
       <c r="Y19">
-        <v>46.744999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>-54.25</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>45.23</v>
+        <v>189.60900000000001</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>184.96700000000001</v>
+        <v>155.24</v>
       </c>
       <c r="D20">
-        <v>2058.3220000000001</v>
+        <v>1203.242</v>
       </c>
       <c r="E20">
-        <v>212.45400000000001</v>
+        <v>82.933000000000007</v>
       </c>
       <c r="F20">
-        <v>741.91300000000001</v>
+        <v>632.154</v>
       </c>
       <c r="G20">
-        <v>913.39099999999996</v>
+        <v>578.70600000000002</v>
       </c>
       <c r="H20">
-        <v>21395.194</v>
+        <v>11591.538</v>
       </c>
       <c r="I20">
-        <v>343.98099999999999</v>
+        <v>178.50800000000001</v>
       </c>
       <c r="J20">
-        <v>7610.1760000000004</v>
+        <v>4330.3549999999996</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>4791.5379999999996</v>
+        <v>2056.8609999999999</v>
       </c>
       <c r="O20">
-        <v>13074.954</v>
+        <v>6490.4189999999999</v>
       </c>
       <c r="P20">
-        <v>8843.3080000000009</v>
+        <v>4734.93</v>
       </c>
       <c r="Q20">
-        <v>-70.344999999999999</v>
+        <v>-13.311999999999999</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>8320.24</v>
+        <v>5101.1189999999997</v>
       </c>
       <c r="U20">
-        <v>159.36000000000001</v>
+        <v>298.02800000000002</v>
       </c>
       <c r="V20">
-        <v>613.91800000000001</v>
+        <v>389.53500000000003</v>
       </c>
       <c r="W20">
-        <v>-65.972999999999999</v>
+        <v>-26.757999999999999</v>
       </c>
       <c r="X20">
-        <v>131.44999999999999</v>
+        <v>-318.63299999999998</v>
       </c>
       <c r="Y20">
-        <v>44.555999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z20">
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>184.96700000000001</v>
+        <v>155.24</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>228.78700000000001</v>
+        <v>374.71100000000001</v>
       </c>
       <c r="D21">
-        <v>2523.1</v>
+        <v>1502.2149999999999</v>
       </c>
       <c r="E21">
-        <v>241.63800000000001</v>
+        <v>74.813000000000002</v>
       </c>
       <c r="F21">
-        <v>1136.0740000000001</v>
+        <v>836.33399999999995</v>
       </c>
       <c r="G21">
-        <v>900.82600000000002</v>
+        <v>451.101</v>
       </c>
       <c r="H21">
-        <v>20958.848000000002</v>
+        <v>11244.2</v>
       </c>
       <c r="I21">
-        <v>305.74700000000001</v>
+        <v>155.18700000000001</v>
       </c>
       <c r="J21">
-        <v>7636.1710000000003</v>
+        <v>3594.1019999999999</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4360.491</v>
+        <v>1957.0129999999999</v>
       </c>
       <c r="O21">
-        <v>12703.062</v>
+        <v>5673.0609999999997</v>
       </c>
       <c r="P21">
-        <v>8583.7430000000004</v>
+        <v>4153.3869999999997</v>
       </c>
       <c r="Q21">
-        <v>-11.941000000000001</v>
+        <v>-108.822</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>8255.7860000000001</v>
+        <v>5571.1390000000001</v>
       </c>
       <c r="U21">
-        <v>147.41900000000001</v>
+        <v>189.20599999999999</v>
       </c>
       <c r="V21">
-        <v>567.59100000000001</v>
+        <v>212.59700000000001</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-322.02300000000002</v>
+        <v>-504.83100000000002</v>
       </c>
       <c r="Y21">
-        <v>42.444000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>348.07</v>
       </c>
       <c r="AA21">
-        <v>228.78700000000001</v>
+        <v>374.71100000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>206.79900000000001</v>
+        <v>-3.6040000000000001</v>
       </c>
       <c r="D22">
-        <v>1902.0530000000001</v>
+        <v>1029.6400000000001</v>
       </c>
       <c r="E22">
-        <v>238.97200000000001</v>
+        <v>95.254000000000005</v>
       </c>
       <c r="F22">
-        <v>728.71199999999999</v>
+        <v>491.15300000000002</v>
       </c>
       <c r="G22">
-        <v>837.02200000000005</v>
+        <v>377.01</v>
       </c>
       <c r="H22">
-        <v>20782.043000000001</v>
+        <v>11255.771000000001</v>
       </c>
       <c r="I22">
-        <v>302.072</v>
+        <v>159.91</v>
       </c>
       <c r="J22">
-        <v>7695.0720000000001</v>
+        <v>3553.8919999999998</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4292.692</v>
+        <v>1988.7819999999999</v>
       </c>
       <c r="O22">
-        <v>12719.004000000001</v>
+        <v>5701.3059999999996</v>
       </c>
       <c r="P22">
-        <v>8594.6139999999996</v>
+        <v>4154.7749999999996</v>
       </c>
       <c r="Q22">
-        <v>-25.853999999999999</v>
+        <v>-63.820999999999998</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>65900</v>
+        <v>38800</v>
       </c>
       <c r="T22">
-        <v>8063.0389999999998</v>
+        <v>5554.4650000000001</v>
       </c>
       <c r="U22">
-        <v>121.565</v>
+        <v>125.38500000000001</v>
       </c>
       <c r="V22">
-        <v>338.43</v>
+        <v>127.521</v>
       </c>
       <c r="W22">
-        <v>-82.494</v>
+        <v>-63.957000000000001</v>
       </c>
       <c r="X22">
-        <v>-82.591999999999999</v>
+        <v>-79.204999999999998</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-1.913</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>206.79900000000001</v>
+        <v>-3.6040000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>99.14</v>
+        <v>119.499</v>
       </c>
       <c r="D23">
-        <v>1917.7950000000001</v>
+        <v>1146.5360000000001</v>
       </c>
       <c r="E23">
-        <v>253.303</v>
+        <v>82.259</v>
       </c>
       <c r="F23">
-        <v>676.21699999999998</v>
+        <v>588.64200000000005</v>
       </c>
       <c r="G23">
-        <v>892.28599999999994</v>
+        <v>553.83500000000004</v>
       </c>
       <c r="H23">
-        <v>20963.413</v>
+        <v>11551.727000000001</v>
       </c>
       <c r="I23">
-        <v>371.85399999999998</v>
+        <v>150.09200000000001</v>
       </c>
       <c r="J23">
-        <v>7907.933</v>
+        <v>3592.7719999999999</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2632,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-1382.27</v>
+        <v>-80.581000000000003</v>
       </c>
       <c r="N23">
-        <v>4397.9440000000004</v>
+        <v>2105.4319999999998</v>
       </c>
       <c r="O23">
-        <v>13075.644</v>
+        <v>5857.018</v>
       </c>
       <c r="P23">
-        <v>8841.9850000000006</v>
+        <v>4188.4250000000002</v>
       </c>
       <c r="Q23">
-        <v>-4.2050000000000001</v>
+        <v>146.59200000000001</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>7887.7690000000002</v>
+        <v>5694.7089999999998</v>
       </c>
       <c r="U23">
-        <v>117.36</v>
+        <v>271.97699999999998</v>
       </c>
       <c r="V23">
-        <v>477.89600000000002</v>
+        <v>343.88799999999998</v>
       </c>
       <c r="W23">
-        <v>-162.88999999999999</v>
+        <v>-31.753</v>
       </c>
       <c r="X23">
-        <v>-246.762</v>
+        <v>39.957000000000001</v>
       </c>
       <c r="Y23">
-        <v>38.561999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z23">
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>99.14</v>
+        <v>119.499</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>229.905</v>
+        <v>122.42700000000001</v>
       </c>
       <c r="D24">
-        <v>2105.2620000000002</v>
+        <v>1292.9839999999999</v>
       </c>
       <c r="E24">
-        <v>215.804</v>
+        <v>84.397999999999996</v>
       </c>
       <c r="F24">
-        <v>794.67499999999995</v>
+        <v>668.81899999999996</v>
       </c>
       <c r="G24">
-        <v>857.93799999999999</v>
+        <v>669.67700000000002</v>
       </c>
       <c r="H24">
-        <v>22471.492999999999</v>
+        <v>12300.085999999999</v>
       </c>
       <c r="I24">
-        <v>319.60599999999999</v>
+        <v>204.55799999999999</v>
       </c>
       <c r="J24">
-        <v>9280.9079999999994</v>
+        <v>4171.6189999999997</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>4373.6310000000003</v>
+        <v>2282.0920000000001</v>
       </c>
       <c r="O24">
-        <v>14325.828</v>
+        <v>6649.6260000000002</v>
       </c>
       <c r="P24">
-        <v>10212.969999999999</v>
+        <v>4654.4889999999996</v>
       </c>
       <c r="Q24">
-        <v>57.804000000000002</v>
+        <v>51.206000000000003</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>8145.665</v>
+        <v>5650.46</v>
       </c>
       <c r="U24">
-        <v>175.16399999999999</v>
+        <v>323.18299999999999</v>
       </c>
       <c r="V24">
-        <v>793.01599999999996</v>
+        <v>339.83100000000002</v>
       </c>
       <c r="W24">
-        <v>-80.667000000000002</v>
+        <v>-31.792000000000002</v>
       </c>
       <c r="X24">
-        <v>1247.2249999999999</v>
+        <v>397.96800000000002</v>
       </c>
       <c r="Y24">
-        <v>36.651000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z24">
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>229.905</v>
+        <v>122.42700000000001</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>693.25699999999995</v>
+        <v>345.37299999999999</v>
       </c>
       <c r="D25">
-        <v>2563.741</v>
+        <v>1636.8510000000001</v>
       </c>
       <c r="E25">
-        <v>273.42200000000003</v>
+        <v>106.691</v>
       </c>
       <c r="F25">
-        <v>1223.6179999999999</v>
+        <v>893.5</v>
       </c>
       <c r="G25">
-        <v>803.06899999999996</v>
+        <v>519.10500000000002</v>
       </c>
       <c r="H25">
-        <v>22450.261999999999</v>
+        <v>12211.732</v>
       </c>
       <c r="I25">
-        <v>259.02699999999999</v>
+        <v>168.721</v>
       </c>
       <c r="J25">
-        <v>8524.2469999999994</v>
+        <v>4181.5020000000004</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>4500.57</v>
+        <v>1821.623</v>
       </c>
       <c r="O25">
-        <v>13660.112999999999</v>
+        <v>6168.598</v>
       </c>
       <c r="P25">
-        <v>9857.1740000000009</v>
+        <v>4450.1400000000003</v>
       </c>
       <c r="Q25">
-        <v>3.2639999999999998</v>
+        <v>-102.645</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>8790.1489999999994</v>
+        <v>6043.134</v>
       </c>
       <c r="U25">
-        <v>178.428</v>
+        <v>220.53800000000001</v>
       </c>
       <c r="V25">
-        <v>730.04</v>
+        <v>224.315</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-403.51299999999998</v>
+        <v>-118.14</v>
       </c>
       <c r="Y25">
-        <v>34.924999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>-8.6110000000000007</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>693.25699999999995</v>
+        <v>345.37200000000001</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>261.08600000000001</v>
+        <v>46.622999999999998</v>
       </c>
       <c r="D26">
-        <v>1909.6030000000001</v>
+        <v>1153.213</v>
       </c>
       <c r="E26">
-        <v>251.15700000000001</v>
+        <v>185.886</v>
       </c>
       <c r="F26">
-        <v>786.35199999999998</v>
+        <v>568.81100000000004</v>
       </c>
       <c r="G26">
-        <v>748.30499999999995</v>
+        <v>501.904</v>
       </c>
       <c r="H26">
-        <v>22310.324000000001</v>
+        <v>13393.088</v>
       </c>
       <c r="I26">
-        <v>305.31299999999999</v>
+        <v>193.79400000000001</v>
       </c>
       <c r="J26">
-        <v>8159.38</v>
+        <v>5040.3220000000001</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>7.9610000000000003</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>4441.6009999999997</v>
+        <v>1872.3679999999999</v>
       </c>
       <c r="O26">
-        <v>13188.912</v>
+        <v>7301.5129999999999</v>
       </c>
       <c r="P26">
-        <v>9445.1149999999998</v>
+        <v>5413.7439999999997</v>
       </c>
       <c r="Q26">
-        <v>-45.825000000000003</v>
+        <v>-116.018</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>65900</v>
+        <v>42271</v>
       </c>
       <c r="T26">
-        <v>9121.4120000000003</v>
+        <v>6091.5749999999998</v>
       </c>
       <c r="U26">
-        <v>132.60300000000001</v>
+        <v>104.52</v>
       </c>
       <c r="V26">
-        <v>515.73800000000006</v>
+        <v>40.472000000000001</v>
       </c>
       <c r="W26">
-        <v>-102.93</v>
+        <v>-60.917000000000002</v>
       </c>
       <c r="X26">
-        <v>-353.14100000000002</v>
+        <v>559.92200000000003</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-0.54400000000000004</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>261.08600000000001</v>
+        <v>46.622999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>214.726</v>
+        <v>8.8249999999999993</v>
       </c>
       <c r="D27">
-        <v>2008.56</v>
+        <v>1223.126</v>
       </c>
       <c r="E27">
-        <v>292.97500000000002</v>
+        <v>207.02</v>
       </c>
       <c r="F27">
-        <v>832.73599999999999</v>
+        <v>609.23900000000003</v>
       </c>
       <c r="G27">
-        <v>756.68899999999996</v>
+        <v>694.36800000000005</v>
       </c>
       <c r="H27">
-        <v>22017.257000000001</v>
+        <v>13694.072</v>
       </c>
       <c r="I27">
-        <v>362.99200000000002</v>
+        <v>194.27099999999999</v>
       </c>
       <c r="J27">
-        <v>6862.63</v>
+        <v>4845.9620000000004</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-1840.402</v>
+        <v>-1374.088</v>
       </c>
       <c r="N27">
-        <v>5271.7420000000002</v>
+        <v>2339.2249999999999</v>
       </c>
       <c r="O27">
-        <v>12750.427</v>
+        <v>7598.0050000000001</v>
       </c>
       <c r="P27">
-        <v>8622.6470000000008</v>
+        <v>5369.1040000000003</v>
       </c>
       <c r="Q27">
-        <v>-23.294</v>
+        <v>95.096000000000004</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>9266.83</v>
+        <v>6096.067</v>
       </c>
       <c r="U27">
-        <v>109.309</v>
+        <v>199.61600000000001</v>
       </c>
       <c r="V27">
-        <v>796.52599999999995</v>
+        <v>359.87</v>
       </c>
       <c r="W27">
-        <v>-102.94199999999999</v>
+        <v>-34.39</v>
       </c>
       <c r="X27">
-        <v>-944.39400000000001</v>
+        <v>-105.429</v>
       </c>
       <c r="Y27">
-        <v>32.046999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z27">
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>214.726</v>
+        <v>8.8249999999999993</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>369.52600000000001</v>
+        <v>128.745</v>
       </c>
       <c r="D28">
-        <v>2195.2739999999999</v>
+        <v>1481.325</v>
       </c>
       <c r="E28">
-        <v>263.99200000000002</v>
+        <v>212.685</v>
       </c>
       <c r="F28">
-        <v>938.48900000000003</v>
+        <v>766.34799999999996</v>
       </c>
       <c r="G28">
-        <v>767.64099999999996</v>
+        <v>747.524</v>
       </c>
       <c r="H28">
-        <v>22024.168000000001</v>
+        <v>14560.302</v>
       </c>
       <c r="I28">
-        <v>376.50799999999998</v>
+        <v>202.65</v>
       </c>
       <c r="J28">
-        <v>6502.268</v>
+        <v>5242.4650000000001</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>5285.9530000000004</v>
+        <v>2621.4059999999999</v>
       </c>
       <c r="O28">
-        <v>12340.76</v>
+        <v>8335.0519999999997</v>
       </c>
       <c r="P28">
-        <v>8075.0510000000004</v>
+        <v>5795.9380000000001</v>
       </c>
       <c r="Q28">
-        <v>21.167999999999999</v>
+        <v>12.749000000000001</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>9683.4079999999994</v>
+        <v>6225.25</v>
       </c>
       <c r="U28">
-        <v>130.477</v>
+        <v>212.36500000000001</v>
       </c>
       <c r="V28">
-        <v>862.75400000000002</v>
+        <v>463.27600000000001</v>
       </c>
       <c r="W28">
-        <v>-103.09699999999999</v>
+        <v>-31.949000000000002</v>
       </c>
       <c r="X28">
-        <v>-725.09900000000005</v>
+        <v>431.15600000000001</v>
       </c>
       <c r="Y28">
-        <v>31.263999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z28">
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>369.52600000000001</v>
+        <v>128.745</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>752.84199999999998</v>
+        <v>395.005</v>
       </c>
       <c r="D29">
-        <v>2569.5439999999999</v>
+        <v>1953.5920000000001</v>
       </c>
       <c r="E29">
-        <v>285.33199999999999</v>
+        <v>337.88900000000001</v>
       </c>
       <c r="F29">
-        <v>1251.2750000000001</v>
+        <v>1068.08</v>
       </c>
       <c r="G29">
-        <v>798.15200000000004</v>
+        <v>1060.271</v>
       </c>
       <c r="H29">
-        <v>22099.313999999998</v>
+        <v>15165.817999999999</v>
       </c>
       <c r="I29">
-        <v>384.536</v>
+        <v>192.42400000000001</v>
       </c>
       <c r="J29">
-        <v>6098.6390000000001</v>
+        <v>5350.5230000000001</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>5057.1120000000001</v>
+        <v>2570.7979999999998</v>
       </c>
       <c r="O29">
-        <v>11663.825999999999</v>
+        <v>8510.3610000000008</v>
       </c>
       <c r="P29">
-        <v>7644.8180000000002</v>
+        <v>5909.1409999999996</v>
       </c>
       <c r="Q29">
-        <v>9.4730000000000008</v>
+        <v>199.541</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>10435.487999999999</v>
+        <v>6655.4570000000003</v>
       </c>
       <c r="U29">
-        <v>139.94999999999999</v>
+        <v>411.90600000000001</v>
       </c>
       <c r="V29">
-        <v>795.32100000000003</v>
+        <v>336.90699999999998</v>
       </c>
       <c r="W29">
-        <v>-103.123</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-700.21699999999998</v>
+        <v>2.7919999999999998</v>
       </c>
       <c r="Y29">
-        <v>30.471</v>
+        <v>0</v>
       </c>
       <c r="Z29">
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>752.84199999999998</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>288.03899999999999</v>
+        <v>70.83</v>
       </c>
       <c r="D30">
-        <v>2004.4670000000001</v>
+        <v>1491.0940000000001</v>
       </c>
       <c r="E30">
-        <v>279.983</v>
+        <v>313.64</v>
       </c>
       <c r="F30">
-        <v>858.76599999999996</v>
+        <v>722.70500000000004</v>
       </c>
       <c r="G30">
-        <v>907.63699999999994</v>
+        <v>992.79100000000005</v>
       </c>
       <c r="H30">
-        <v>22360.925999999999</v>
+        <v>14982.281000000001</v>
       </c>
       <c r="I30">
-        <v>360.113</v>
+        <v>222.89500000000001</v>
       </c>
       <c r="J30">
-        <v>6397.4459999999999</v>
+        <v>5346.5469999999996</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>4854.8729999999996</v>
+        <v>2339.2950000000001</v>
       </c>
       <c r="O30">
-        <v>11658.623</v>
+        <v>8224.9380000000001</v>
       </c>
       <c r="P30">
-        <v>7585.96</v>
+        <v>5698.2719999999999</v>
       </c>
       <c r="Q30">
-        <v>-19.838000000000001</v>
+        <v>-181.12200000000001</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>65900</v>
+        <v>45936</v>
       </c>
       <c r="T30">
-        <v>10702.303</v>
+        <v>6757.3429999999998</v>
       </c>
       <c r="U30">
-        <v>120.11199999999999</v>
+        <v>230.78399999999999</v>
       </c>
       <c r="V30">
-        <v>419.96499999999997</v>
+        <v>108.64100000000001</v>
       </c>
       <c r="W30">
-        <v>-128.29300000000001</v>
+        <v>-31.959</v>
       </c>
       <c r="X30">
-        <v>-306.08600000000001</v>
+        <v>-291.90800000000002</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-10.396000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>288.03899999999999</v>
+        <v>70.83</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>218.65299999999999</v>
+        <v>75.606999999999999</v>
       </c>
       <c r="D31">
-        <v>2027.7560000000001</v>
+        <v>1429.085</v>
       </c>
       <c r="E31">
-        <v>291.99700000000001</v>
+        <v>236.29300000000001</v>
       </c>
       <c r="F31">
-        <v>851.73699999999997</v>
+        <v>697.15</v>
       </c>
       <c r="G31">
-        <v>1034.5260000000001</v>
+        <v>1249.056</v>
       </c>
       <c r="H31">
-        <v>23970.972000000002</v>
+        <v>15551.733</v>
       </c>
       <c r="I31">
-        <v>454.57600000000002</v>
+        <v>207.34200000000001</v>
       </c>
       <c r="J31">
-        <v>7672.902</v>
+        <v>5747.3710000000001</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-1394.222</v>
+        <v>-265.846</v>
       </c>
       <c r="N31">
-        <v>5195.1540000000005</v>
+        <v>2350.2040000000002</v>
       </c>
       <c r="O31">
-        <v>13324.175999999999</v>
+        <v>8644.7469999999994</v>
       </c>
       <c r="P31">
-        <v>8855.99</v>
+        <v>5948.9849999999997</v>
       </c>
       <c r="Q31">
-        <v>-8.8670000000000009</v>
+        <v>210.34299999999999</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>10646.796</v>
+        <v>6906.9859999999999</v>
       </c>
       <c r="U31">
-        <v>111.245</v>
+        <v>441.12700000000001</v>
       </c>
       <c r="V31">
-        <v>924.12199999999996</v>
+        <v>301.803</v>
       </c>
       <c r="W31">
-        <v>-127.84</v>
+        <v>-32.015000000000001</v>
       </c>
       <c r="X31">
-        <v>711.85299999999995</v>
+        <v>38.981999999999999</v>
       </c>
       <c r="Y31">
-        <v>39.070999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z31">
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>218.65299999999999</v>
+        <v>75.606999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>466.29500000000002</v>
+        <v>84.748999999999995</v>
       </c>
       <c r="D32">
-        <v>2337.605</v>
+        <v>1583.7739999999999</v>
       </c>
       <c r="E32">
-        <v>266.09699999999998</v>
+        <v>250.55699999999999</v>
       </c>
       <c r="F32">
-        <v>1023.194</v>
+        <v>761.98599999999999</v>
       </c>
       <c r="G32">
-        <v>1099.896</v>
+        <v>1243.819</v>
       </c>
       <c r="H32">
-        <v>24057.036</v>
+        <v>16461.036</v>
       </c>
       <c r="I32">
-        <v>418.61599999999999</v>
+        <v>255.48699999999999</v>
       </c>
       <c r="J32">
-        <v>7356.5659999999998</v>
+        <v>5941.2060000000001</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>5502.35</v>
+        <v>2782.739</v>
       </c>
       <c r="O32">
-        <v>13283.338</v>
+        <v>9413.73</v>
       </c>
       <c r="P32">
-        <v>8571.0059999999994</v>
+        <v>6371.96</v>
       </c>
       <c r="Q32">
-        <v>-2.2469999999999999</v>
+        <v>-53.969000000000001</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>10773.698</v>
+        <v>7047.3059999999996</v>
       </c>
       <c r="U32">
-        <v>108.998</v>
+        <v>387.15800000000002</v>
       </c>
       <c r="V32">
-        <v>1007.4640000000001</v>
+        <v>459.62799999999999</v>
       </c>
       <c r="W32">
-        <v>-126.80500000000001</v>
+        <v>-64.001999999999995</v>
       </c>
       <c r="X32">
-        <v>-497.89600000000002</v>
+        <v>443.33300000000003</v>
       </c>
       <c r="Y32">
-        <v>36.814</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>13.215</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>466.29500000000002</v>
+        <v>84.748999999999995</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>810.39099999999996</v>
+        <v>411.887</v>
       </c>
       <c r="D33">
-        <v>2796.1869999999999</v>
+        <v>2063.3890000000001</v>
       </c>
       <c r="E33">
-        <v>305.108</v>
+        <v>324.13099999999997</v>
       </c>
       <c r="F33">
-        <v>1384.8230000000001</v>
+        <v>1051.6310000000001</v>
       </c>
       <c r="G33">
-        <v>1359</v>
+        <v>1045.854</v>
       </c>
       <c r="H33">
-        <v>27093.54</v>
+        <v>15770.686</v>
       </c>
       <c r="I33">
-        <v>432.08600000000001</v>
+        <v>222.631</v>
       </c>
       <c r="J33">
-        <v>7594.7160000000003</v>
+        <v>5550.21</v>
       </c>
       <c r="K33">
-        <v>998.83500000000004</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>7072.942</v>
+        <v>2541.3319999999999</v>
       </c>
       <c r="O33">
-        <v>15217.635</v>
+        <v>8750.375</v>
       </c>
       <c r="P33">
-        <v>10226.11</v>
+        <v>6028.8040000000001</v>
       </c>
       <c r="Q33">
-        <v>145.82300000000001</v>
+        <v>-85.194999999999993</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>11875.905000000001</v>
+        <v>7020.3109999999997</v>
       </c>
       <c r="U33">
-        <v>254.821</v>
+        <v>301.96300000000002</v>
       </c>
       <c r="V33">
-        <v>815.39800000000002</v>
+        <v>283.33300000000003</v>
       </c>
       <c r="W33">
-        <v>-126.82</v>
+        <v>-32.027999999999999</v>
       </c>
       <c r="X33">
-        <v>551.79700000000003</v>
+        <v>-243.566</v>
       </c>
       <c r="Y33">
-        <v>103.946</v>
+        <v>47.732999999999997</v>
       </c>
       <c r="Z33">
-        <v>-15.194000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>810.39099999999996</v>
+        <v>411.887</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>315.70299999999997</v>
+        <v>1.4790000000000001</v>
       </c>
       <c r="D34">
-        <v>2332.3009999999999</v>
+        <v>1456.277</v>
       </c>
       <c r="E34">
-        <v>305.43200000000002</v>
+        <v>271.28699999999998</v>
       </c>
       <c r="F34">
-        <v>971.88800000000003</v>
+        <v>-376.608</v>
       </c>
       <c r="G34">
-        <v>1242.0440000000001</v>
+        <v>977.33699999999999</v>
       </c>
       <c r="H34">
-        <v>27698.27</v>
+        <v>16463.310000000001</v>
       </c>
       <c r="I34">
-        <v>488.21199999999999</v>
+        <v>245.22499999999999</v>
       </c>
       <c r="J34">
-        <v>8264.893</v>
+        <v>6539.51</v>
       </c>
       <c r="K34">
-        <v>775.48800000000006</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>7112.165</v>
+        <v>2674.2249999999999</v>
       </c>
       <c r="O34">
-        <v>16050.789000000001</v>
+        <v>9660.2980000000007</v>
       </c>
       <c r="P34">
-        <v>10818.165999999999</v>
+        <v>7011.4030000000002</v>
       </c>
       <c r="Q34">
-        <v>33.030999999999999</v>
+        <v>100.91500000000001</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>76900</v>
+        <v>49000</v>
       </c>
       <c r="T34">
-        <v>11647.481</v>
+        <v>6803.0119999999997</v>
       </c>
       <c r="U34">
-        <v>287.85199999999998</v>
+        <v>402.87799999999999</v>
       </c>
       <c r="V34">
-        <v>732.15499999999997</v>
+        <v>26.491</v>
       </c>
       <c r="W34">
-        <v>-146.029</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>432.31900000000002</v>
+        <v>844.63699999999994</v>
       </c>
       <c r="Y34">
-        <v>130.94399999999999</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>-11.978</v>
+        <v>51.4</v>
       </c>
       <c r="AA34">
-        <v>315.70299999999997</v>
+        <v>1.4790000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>249.68100000000001</v>
+        <v>-36.238</v>
       </c>
       <c r="D35">
-        <v>2439.7669999999998</v>
+        <v>1325.6020000000001</v>
       </c>
       <c r="E35">
-        <v>355.30099999999999</v>
+        <v>194.50800000000001</v>
       </c>
       <c r="F35">
-        <v>1052.05</v>
+        <v>373.26600000000002</v>
       </c>
       <c r="G35">
-        <v>1333.1220000000001</v>
+        <v>900.15899999999999</v>
       </c>
       <c r="H35">
-        <v>28720.048999999999</v>
+        <v>16191.027</v>
       </c>
       <c r="I35">
-        <v>497.18</v>
+        <v>241.43100000000001</v>
       </c>
       <c r="J35">
-        <v>7475.5540000000001</v>
+        <v>6445.8329999999996</v>
       </c>
       <c r="K35">
-        <v>1112.03</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>-4711.2079999999996</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>-1146.674</v>
+        <v>-1.502</v>
       </c>
       <c r="N35">
-        <v>8105.9430000000002</v>
+        <v>2462.7930000000001</v>
       </c>
       <c r="O35">
-        <v>16901.333999999999</v>
+        <v>9441.2819999999992</v>
       </c>
       <c r="P35">
-        <v>11124.903</v>
+        <v>6967.2929999999997</v>
       </c>
       <c r="Q35">
-        <v>-39.655000000000001</v>
+        <v>53.006</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>11818.715</v>
+        <v>6749.7449999999999</v>
       </c>
       <c r="U35">
-        <v>248.197</v>
+        <v>455.88400000000001</v>
       </c>
       <c r="V35">
-        <v>1078.454</v>
+        <v>113.908</v>
       </c>
       <c r="W35">
-        <v>-146.81700000000001</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>-667.68100000000004</v>
+        <v>-1.361</v>
       </c>
       <c r="Y35">
-        <v>802.49800000000005</v>
+        <v>47.881</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>249.68100000000001</v>
+        <v>-36.238</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>472.83</v>
+        <v>-35.085999999999999</v>
       </c>
       <c r="D36">
-        <v>2806.6309999999999</v>
+        <v>1349.0150000000001</v>
       </c>
       <c r="E36">
-        <v>317.27</v>
+        <v>241.22399999999999</v>
       </c>
       <c r="F36">
-        <v>1283.627</v>
+        <v>383.58</v>
       </c>
       <c r="G36">
-        <v>1282.9670000000001</v>
+        <v>910.46100000000001</v>
       </c>
       <c r="H36">
-        <v>29808.962</v>
+        <v>16336.656999999999</v>
       </c>
       <c r="I36">
-        <v>531.78800000000001</v>
+        <v>262.64699999999999</v>
       </c>
       <c r="J36">
-        <v>8778.1039999999994</v>
+        <v>5997.3450000000003</v>
       </c>
       <c r="K36">
-        <v>1046.587</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>7586.14</v>
+        <v>2862.6889999999999</v>
       </c>
       <c r="O36">
-        <v>17713.789000000001</v>
+        <v>9287.8220000000001</v>
       </c>
       <c r="P36">
-        <v>11715.878000000001</v>
+        <v>6768.6710000000003</v>
       </c>
       <c r="Q36">
-        <v>-13.196</v>
+        <v>-146.126</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>12095.173000000001</v>
+        <v>7048.835</v>
       </c>
       <c r="U36">
-        <v>235.001</v>
+        <v>309.75799999999998</v>
       </c>
       <c r="V36">
-        <v>1117.0730000000001</v>
+        <v>228.95</v>
       </c>
       <c r="W36">
-        <v>-146.38</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>318.78399999999999</v>
+        <v>-265.209</v>
       </c>
       <c r="Y36">
-        <v>852.43700000000001</v>
+        <v>48.042999999999999</v>
       </c>
       <c r="Z36">
-        <v>-3.0459999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>472.83</v>
+        <v>-35.085999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>883.24</v>
+        <v>230.392</v>
       </c>
       <c r="D37">
-        <v>3186.85</v>
+        <v>1763.5419999999999</v>
       </c>
       <c r="E37">
-        <v>329.9</v>
+        <v>334.666</v>
       </c>
       <c r="F37">
-        <v>1581.1120000000001</v>
+        <v>654.55600000000004</v>
       </c>
       <c r="G37">
-        <v>1203.9570000000001</v>
+        <v>1020.636</v>
       </c>
       <c r="H37">
-        <v>29825.460999999999</v>
+        <v>17186.294999999998</v>
       </c>
       <c r="I37">
-        <v>538.94899999999996</v>
+        <v>270.47199999999998</v>
       </c>
       <c r="J37">
-        <v>8700.5409999999993</v>
+        <v>6577.027</v>
       </c>
       <c r="K37">
-        <v>922.20100000000002</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>7113.5339999999997</v>
+        <v>2762.817</v>
       </c>
       <c r="O37">
-        <v>17285.16</v>
+        <v>9742.5490000000009</v>
       </c>
       <c r="P37">
-        <v>11483.105</v>
+        <v>7296.05</v>
       </c>
       <c r="Q37">
-        <v>41.728999999999999</v>
+        <v>-23.895</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>12540.300999999999</v>
+        <v>7443.7460000000001</v>
       </c>
       <c r="U37">
-        <v>276.73</v>
+        <v>285.863</v>
       </c>
       <c r="V37">
-        <v>911.54100000000005</v>
+        <v>320.92099999999999</v>
       </c>
       <c r="W37">
-        <v>-146.346</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-366.012</v>
+        <v>422.97500000000002</v>
       </c>
       <c r="Y37">
-        <v>824.245</v>
+        <v>51.414999999999999</v>
       </c>
       <c r="Z37">
-        <v>-3.843</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>883.24</v>
+        <v>230.392</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>273.13600000000002</v>
+        <v>3.3530000000000002</v>
       </c>
       <c r="D38">
-        <v>2517.413</v>
+        <v>1451.6669999999999</v>
       </c>
       <c r="E38">
-        <v>279.88799999999998</v>
+        <v>338.80399999999997</v>
       </c>
       <c r="F38">
-        <v>1066.8879999999999</v>
+        <v>421.52199999999999</v>
       </c>
       <c r="G38">
-        <v>1162.6279999999999</v>
+        <v>1026.3910000000001</v>
       </c>
       <c r="H38">
-        <v>30320.284</v>
+        <v>18233.493999999999</v>
       </c>
       <c r="I38">
-        <v>563.70600000000002</v>
+        <v>264.55399999999997</v>
       </c>
       <c r="J38">
-        <v>8281.5810000000001</v>
+        <v>7663.5550000000003</v>
       </c>
       <c r="K38">
-        <v>1434.18</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>7952.8959999999997</v>
+        <v>2749.03</v>
       </c>
       <c r="O38">
-        <v>17586.456999999999</v>
+        <v>10733.777</v>
       </c>
       <c r="P38">
-        <v>11797.661</v>
+        <v>8419.77</v>
       </c>
       <c r="Q38">
-        <v>-32.991999999999997</v>
+        <v>-1.244</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>85300</v>
+        <v>59500</v>
       </c>
       <c r="T38">
-        <v>12733.826999999999</v>
+        <v>7499.7169999999996</v>
       </c>
       <c r="U38">
-        <v>243.738</v>
+        <v>284.61900000000003</v>
       </c>
       <c r="V38">
-        <v>609.298</v>
+        <v>181.102</v>
       </c>
       <c r="W38">
-        <v>-163.131</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>44.537999999999997</v>
+        <v>1155.8009999999999</v>
       </c>
       <c r="Y38">
-        <v>798.33799999999997</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-18.68</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>273.13600000000002</v>
+        <v>3.3530000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>-1444.479</v>
+        <v>87.447000000000003</v>
       </c>
       <c r="D39">
-        <v>2032.75</v>
+        <v>1485.65</v>
       </c>
       <c r="E39">
-        <v>193.553</v>
+        <v>257.59199999999998</v>
       </c>
       <c r="F39">
-        <v>569.27700000000004</v>
+        <v>460.375</v>
       </c>
       <c r="G39">
-        <v>4594.201</v>
+        <v>917.22799999999995</v>
       </c>
       <c r="H39">
-        <v>33445.053</v>
+        <v>18037.146000000001</v>
       </c>
       <c r="I39">
-        <v>1414.394</v>
+        <v>242.35</v>
       </c>
       <c r="J39">
-        <v>12198.067999999999</v>
+        <v>6798.6319999999996</v>
       </c>
       <c r="K39">
-        <v>343.55700000000002</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>-7494.0249999999996</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>-921.86699999999996</v>
+        <v>-378.596</v>
       </c>
       <c r="N39">
-        <v>8982.3700000000008</v>
+        <v>3372.18</v>
       </c>
       <c r="O39">
-        <v>22635.852999999999</v>
+        <v>10571.744000000001</v>
       </c>
       <c r="P39">
-        <v>16825.045999999998</v>
+        <v>8103.3919999999998</v>
       </c>
       <c r="Q39">
-        <v>3647.0729999999999</v>
+        <v>-6.5149999999999997</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>10809.2</v>
+        <v>7465.402</v>
       </c>
       <c r="U39">
-        <v>3890.8110000000001</v>
+        <v>278.10399999999998</v>
       </c>
       <c r="V39">
-        <v>198.71</v>
+        <v>412.92399999999998</v>
       </c>
       <c r="W39">
-        <v>-163.56299999999999</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>4790.2120000000004</v>
+        <v>-250.625</v>
       </c>
       <c r="Y39">
-        <v>772.54499999999996</v>
+        <v>49.087000000000003</v>
       </c>
       <c r="Z39">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>-1444.479</v>
+        <v>79.843000000000004</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-1639.2919999999999</v>
+        <v>46.127000000000002</v>
       </c>
       <c r="D40">
-        <v>175.60499999999999</v>
+        <v>1601.6969999999999</v>
       </c>
       <c r="E40">
-        <v>178.59800000000001</v>
+        <v>212.20400000000001</v>
       </c>
       <c r="F40">
-        <v>-479.2</v>
+        <v>515.51</v>
       </c>
       <c r="G40">
-        <v>4684.4399999999996</v>
+        <v>911.14800000000002</v>
       </c>
       <c r="H40">
-        <v>33306.542999999998</v>
+        <v>18303.013999999999</v>
       </c>
       <c r="I40">
-        <v>661.42700000000002</v>
+        <v>292.04700000000003</v>
       </c>
       <c r="J40">
-        <v>17661.924999999999</v>
+        <v>7062.2610000000004</v>
       </c>
       <c r="K40">
-        <v>368.952</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>4736.9080000000004</v>
+        <v>3454.8290000000002</v>
       </c>
       <c r="O40">
-        <v>23757.769</v>
+        <v>11055.246999999999</v>
       </c>
       <c r="P40">
-        <v>19603.552</v>
+        <v>8110.3559999999998</v>
       </c>
       <c r="Q40">
-        <v>255.88</v>
+        <v>40.716000000000001</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>9548.7739999999994</v>
+        <v>7247.7669999999998</v>
       </c>
       <c r="U40">
-        <v>4146.6909999999998</v>
+        <v>318.82</v>
       </c>
       <c r="V40">
-        <v>-2247.5329999999999</v>
+        <v>597.97799999999995</v>
       </c>
       <c r="W40">
-        <v>-162.858</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>2753.9940000000001</v>
+        <v>137.96199999999999</v>
       </c>
       <c r="Y40">
-        <v>763.57799999999997</v>
+        <v>46.752000000000002</v>
       </c>
       <c r="Z40">
-        <v>-85.942999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>-1639.2919999999999</v>
+        <v>53.731000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>-1346.7560000000001</v>
+        <v>350.17899999999997</v>
       </c>
       <c r="D41">
-        <v>-33.688000000000002</v>
+        <v>2060.6590000000001</v>
       </c>
       <c r="E41">
-        <v>139.44200000000001</v>
+        <v>279.38799999999998</v>
       </c>
       <c r="F41">
-        <v>-335.11799999999999</v>
+        <v>821.03399999999999</v>
       </c>
       <c r="G41">
-        <v>3531.7950000000001</v>
+        <v>1043.307</v>
       </c>
       <c r="H41">
-        <v>31828.81</v>
+        <v>18605.808000000001</v>
       </c>
       <c r="I41">
-        <v>421.02300000000002</v>
+        <v>281.05099999999999</v>
       </c>
       <c r="J41">
-        <v>17593.468000000001</v>
+        <v>6927.884</v>
       </c>
       <c r="K41">
-        <v>386.68299999999999</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>4625.4650000000001</v>
+        <v>3452.826</v>
       </c>
       <c r="O41">
-        <v>23500.216</v>
+        <v>10754.564</v>
       </c>
       <c r="P41">
-        <v>19681.013999999999</v>
+        <v>8084.96</v>
       </c>
       <c r="Q41">
-        <v>-1129.903</v>
+        <v>123.11</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>8328.5939999999991</v>
+        <v>7851.2439999999997</v>
       </c>
       <c r="U41">
-        <v>3016.788</v>
+        <v>441.93</v>
       </c>
       <c r="V41">
-        <v>-857.43200000000002</v>
+        <v>425.005</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>-74.444000000000003</v>
+        <v>-228.655</v>
       </c>
       <c r="Y41">
-        <v>728.58500000000004</v>
+        <v>52.37</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>-1346.7560000000001</v>
+        <v>350.17899999999997</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>31.9</v>
+      </c>
+      <c r="D42">
+        <v>1604.498</v>
+      </c>
+      <c r="E42">
+        <v>266.70999999999998</v>
+      </c>
+      <c r="F42">
+        <v>497.50900000000001</v>
+      </c>
+      <c r="G42">
+        <v>1015.071</v>
+      </c>
+      <c r="H42">
+        <v>19653.829000000002</v>
+      </c>
+      <c r="I42">
+        <v>249.047</v>
+      </c>
+      <c r="J42">
+        <v>7951.1869999999999</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>3445.1729999999998</v>
+      </c>
+      <c r="O42">
+        <v>11753.076999999999</v>
+      </c>
+      <c r="P42">
+        <v>9150.116</v>
+      </c>
+      <c r="Q42">
+        <v>-22.001000000000001</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>57200</v>
+      </c>
+      <c r="T42">
+        <v>7900.7520000000004</v>
+      </c>
+      <c r="U42">
+        <v>419.92899999999997</v>
+      </c>
+      <c r="V42">
+        <v>227.11199999999999</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>1098.278</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>78.41</v>
+      </c>
+      <c r="D43">
+        <v>1671.9949999999999</v>
+      </c>
+      <c r="E43">
+        <v>276.88499999999999</v>
+      </c>
+      <c r="F43">
+        <v>570.92399999999998</v>
+      </c>
+      <c r="G43">
+        <v>1214.6859999999999</v>
+      </c>
+      <c r="H43">
+        <v>19775.491999999998</v>
+      </c>
+      <c r="I43">
+        <v>334.98500000000001</v>
+      </c>
+      <c r="J43">
+        <v>8023.8549999999996</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-944.26900000000001</v>
+      </c>
+      <c r="N43">
+        <v>3010.8760000000002</v>
+      </c>
+      <c r="O43">
+        <v>11497.509</v>
+      </c>
+      <c r="P43">
+        <v>8779.277</v>
+      </c>
+      <c r="Q43">
+        <v>50.329000000000001</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>8277.9830000000002</v>
+      </c>
+      <c r="U43">
+        <v>470.25799999999998</v>
+      </c>
+      <c r="V43">
+        <v>285.41899999999998</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-452.66800000000001</v>
+      </c>
+      <c r="Y43">
+        <v>52.938000000000002</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>78.41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>93.491</v>
+      </c>
+      <c r="D44">
+        <v>1767.873</v>
+      </c>
+      <c r="E44">
+        <v>273.70800000000003</v>
+      </c>
+      <c r="F44">
+        <v>582.49800000000005</v>
+      </c>
+      <c r="G44">
+        <v>1326.876</v>
+      </c>
+      <c r="H44">
+        <v>19948.498</v>
+      </c>
+      <c r="I44">
+        <v>343.16199999999998</v>
+      </c>
+      <c r="J44">
+        <v>7851.2039999999997</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>3287.93</v>
+      </c>
+      <c r="O44">
+        <v>11600.218999999999</v>
+      </c>
+      <c r="P44">
+        <v>8604.8909999999996</v>
+      </c>
+      <c r="Q44">
+        <v>81.201999999999998</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>8348.2790000000005</v>
+      </c>
+      <c r="U44">
+        <v>551.46</v>
+      </c>
+      <c r="V44">
+        <v>481.32299999999998</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-231.65600000000001</v>
+      </c>
+      <c r="Y44">
+        <v>50.442</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>93.491</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>398.95800000000003</v>
+      </c>
+      <c r="D45">
+        <v>2321.9940000000001</v>
+      </c>
+      <c r="E45">
+        <v>303.91899999999998</v>
+      </c>
+      <c r="F45">
+        <v>916.69399999999996</v>
+      </c>
+      <c r="G45">
+        <v>1223.1179999999999</v>
+      </c>
+      <c r="H45">
+        <v>20170.026000000002</v>
+      </c>
+      <c r="I45">
+        <v>323.08199999999999</v>
+      </c>
+      <c r="J45">
+        <v>8086.63</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>3115.241</v>
+      </c>
+      <c r="O45">
+        <v>11731.93</v>
+      </c>
+      <c r="P45">
+        <v>8775.7029999999995</v>
+      </c>
+      <c r="Q45">
+        <v>-100</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>8438.0959999999995</v>
+      </c>
+      <c r="U45">
+        <v>451.46</v>
+      </c>
+      <c r="V45">
+        <v>505.976</v>
+      </c>
+      <c r="W45">
+        <v>-21.707000000000001</v>
+      </c>
+      <c r="X45">
+        <v>233.31200000000001</v>
+      </c>
+      <c r="Y45">
+        <v>49.576000000000001</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>398.95800000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>36.561999999999998</v>
+      </c>
+      <c r="D46">
+        <v>1775.4010000000001</v>
+      </c>
+      <c r="E46">
+        <v>292.447</v>
+      </c>
+      <c r="F46">
+        <v>524.54</v>
+      </c>
+      <c r="G46">
+        <v>969.28800000000001</v>
+      </c>
+      <c r="H46">
+        <v>19804.404999999999</v>
+      </c>
+      <c r="I46">
+        <v>304.62299999999999</v>
+      </c>
+      <c r="J46">
+        <v>7868.3310000000001</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>3067.6419999999998</v>
+      </c>
+      <c r="O46">
+        <v>11396.582</v>
+      </c>
+      <c r="P46">
+        <v>8507.2219999999998</v>
+      </c>
+      <c r="Q46">
+        <v>-189.274</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>60300</v>
+      </c>
+      <c r="T46">
+        <v>8407.8230000000003</v>
+      </c>
+      <c r="U46">
+        <v>262.18599999999998</v>
+      </c>
+      <c r="V46">
+        <v>183.02099999999999</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-225.50299999999999</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>36.561999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>46.963999999999999</v>
+      </c>
+      <c r="D47">
+        <v>1834.48</v>
+      </c>
+      <c r="E47">
+        <v>313.00099999999998</v>
+      </c>
+      <c r="F47">
+        <v>579.36800000000005</v>
+      </c>
+      <c r="G47">
+        <v>1123.4970000000001</v>
+      </c>
+      <c r="H47">
+        <v>20028.958999999999</v>
+      </c>
+      <c r="I47">
+        <v>291.03399999999999</v>
+      </c>
+      <c r="J47">
+        <v>7862.6480000000001</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-131.81</v>
+      </c>
+      <c r="N47">
+        <v>3099.8739999999998</v>
+      </c>
+      <c r="O47">
+        <v>11436.388999999999</v>
+      </c>
+      <c r="P47">
+        <v>8546.4889999999996</v>
+      </c>
+      <c r="Q47">
+        <v>15.347</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>8592.57</v>
+      </c>
+      <c r="U47">
+        <v>277.53300000000002</v>
+      </c>
+      <c r="V47">
+        <v>215.215</v>
+      </c>
+      <c r="W47">
+        <v>-43.506</v>
+      </c>
+      <c r="X47">
+        <v>-44.594999999999999</v>
+      </c>
+      <c r="Y47">
+        <v>44.475999999999999</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>46.963999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>-3.653</v>
+      </c>
+      <c r="D48">
+        <v>1821.0039999999999</v>
+      </c>
+      <c r="E48">
+        <v>284.65800000000002</v>
+      </c>
+      <c r="F48">
+        <v>524.99</v>
+      </c>
+      <c r="G48">
+        <v>954.14800000000002</v>
+      </c>
+      <c r="H48">
+        <v>19696.103999999999</v>
+      </c>
+      <c r="I48">
+        <v>316.40899999999999</v>
+      </c>
+      <c r="J48">
+        <v>7064.3050000000003</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>3809.1120000000001</v>
+      </c>
+      <c r="O48">
+        <v>11424.43</v>
+      </c>
+      <c r="P48">
+        <v>8266.598</v>
+      </c>
+      <c r="Q48">
+        <v>-65.323999999999998</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>8271.6740000000009</v>
+      </c>
+      <c r="U48">
+        <v>212.209</v>
+      </c>
+      <c r="V48">
+        <v>368.30399999999997</v>
+      </c>
+      <c r="W48">
+        <v>-21.786999999999999</v>
+      </c>
+      <c r="X48">
+        <v>-270.471</v>
+      </c>
+      <c r="Y48">
+        <v>45.744</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>-3.653</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>367.779</v>
+      </c>
+      <c r="D49">
+        <v>2226.39</v>
+      </c>
+      <c r="E49">
+        <v>301.11</v>
+      </c>
+      <c r="F49">
+        <v>883.56500000000005</v>
+      </c>
+      <c r="G49">
+        <v>1033.18</v>
+      </c>
+      <c r="H49">
+        <v>19668.222000000002</v>
+      </c>
+      <c r="I49">
+        <v>361.09399999999999</v>
+      </c>
+      <c r="J49">
+        <v>6641.2690000000002</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>3826.1849999999999</v>
+      </c>
+      <c r="O49">
+        <v>10965.561</v>
+      </c>
+      <c r="P49">
+        <v>7839.4380000000001</v>
+      </c>
+      <c r="Q49">
+        <v>29.027999999999999</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>8702.6610000000001</v>
+      </c>
+      <c r="U49">
+        <v>241.23699999999999</v>
+      </c>
+      <c r="V49">
+        <v>588.73699999999997</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-486.40499999999997</v>
+      </c>
+      <c r="Y49">
+        <v>43.220999999999997</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>367.779</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>-392.803</v>
+      </c>
+      <c r="D50">
+        <v>1806.15</v>
+      </c>
+      <c r="E50">
+        <v>281.42099999999999</v>
+      </c>
+      <c r="F50">
+        <v>553.16700000000003</v>
+      </c>
+      <c r="G50">
+        <v>888.06</v>
+      </c>
+      <c r="H50">
+        <v>19827.93</v>
+      </c>
+      <c r="I50">
+        <v>351.58699999999999</v>
+      </c>
+      <c r="J50">
+        <v>7025.9350000000004</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>4066.1509999999998</v>
+      </c>
+      <c r="O50">
+        <v>11519.181</v>
+      </c>
+      <c r="P50">
+        <v>8545.4179999999997</v>
+      </c>
+      <c r="Q50">
+        <v>-46.381999999999998</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>61250</v>
+      </c>
+      <c r="T50">
+        <v>8308.7489999999998</v>
+      </c>
+      <c r="U50">
+        <v>194.85499999999999</v>
+      </c>
+      <c r="V50">
+        <v>209.47800000000001</v>
+      </c>
+      <c r="W50">
+        <v>-52.414000000000001</v>
+      </c>
+      <c r="X50">
+        <v>621.85400000000004</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>-392.803</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>76.225999999999999</v>
+      </c>
+      <c r="D51">
+        <v>1911.22</v>
+      </c>
+      <c r="E51">
+        <v>308.02999999999997</v>
+      </c>
+      <c r="F51">
+        <v>629.03</v>
+      </c>
+      <c r="G51">
+        <v>958.61400000000003</v>
+      </c>
+      <c r="H51">
+        <v>19866.100999999999</v>
+      </c>
+      <c r="I51">
+        <v>337.44099999999997</v>
+      </c>
+      <c r="J51">
+        <v>5974.0780000000004</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-106.137</v>
+      </c>
+      <c r="N51">
+        <v>5060.5039999999999</v>
+      </c>
+      <c r="O51">
+        <v>11527.566000000001</v>
+      </c>
+      <c r="P51">
+        <v>8509.6830000000009</v>
+      </c>
+      <c r="Q51">
+        <v>21.033000000000001</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>8338.5349999999999</v>
+      </c>
+      <c r="U51">
+        <v>215.88800000000001</v>
+      </c>
+      <c r="V51">
+        <v>241.25700000000001</v>
+      </c>
+      <c r="W51">
+        <v>-27.734999999999999</v>
+      </c>
+      <c r="X51">
+        <v>-25.672000000000001</v>
+      </c>
+      <c r="Y51">
+        <v>44.540999999999997</v>
+      </c>
+      <c r="Z51">
+        <v>-19.486999999999998</v>
+      </c>
+      <c r="AA51">
+        <v>76.225999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>24.747</v>
+      </c>
+      <c r="D52">
+        <v>1882.7670000000001</v>
+      </c>
+      <c r="E52">
+        <v>310.05099999999999</v>
+      </c>
+      <c r="F52">
+        <v>559.14800000000002</v>
+      </c>
+      <c r="G52">
+        <v>953.09400000000005</v>
+      </c>
+      <c r="H52">
+        <v>19950.794000000002</v>
+      </c>
+      <c r="I52">
+        <v>314.197</v>
+      </c>
+      <c r="J52">
+        <v>6364.7830000000004</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>4712.1750000000002</v>
+      </c>
+      <c r="O52">
+        <v>11584.535</v>
+      </c>
+      <c r="P52">
+        <v>8315.5319999999992</v>
+      </c>
+      <c r="Q52">
+        <v>-10.714</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>8366.259</v>
+      </c>
+      <c r="U52">
+        <v>205.17400000000001</v>
+      </c>
+      <c r="V52">
+        <v>431.53100000000001</v>
+      </c>
+      <c r="W52">
+        <v>-26.363</v>
+      </c>
+      <c r="X52">
+        <v>-192.10400000000001</v>
+      </c>
+      <c r="Y52">
+        <v>44.280999999999999</v>
+      </c>
+      <c r="Z52">
+        <v>-16.27</v>
+      </c>
+      <c r="AA52">
+        <v>24.747</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>365.70100000000002</v>
+      </c>
+      <c r="D53">
+        <v>2311.7489999999998</v>
+      </c>
+      <c r="E53">
+        <v>342.02100000000002</v>
+      </c>
+      <c r="F53">
+        <v>899.74800000000005</v>
+      </c>
+      <c r="G53">
+        <v>1018.675</v>
+      </c>
+      <c r="H53">
+        <v>20086.244999999999</v>
+      </c>
+      <c r="I53">
+        <v>396.48200000000003</v>
+      </c>
+      <c r="J53">
+        <v>5996.2830000000004</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>4844.5649999999996</v>
+      </c>
+      <c r="O53">
+        <v>11324.161</v>
+      </c>
+      <c r="P53">
+        <v>7984.3019999999997</v>
+      </c>
+      <c r="Q53">
+        <v>4.3929999999999998</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>8762.0840000000007</v>
+      </c>
+      <c r="U53">
+        <v>209.56700000000001</v>
+      </c>
+      <c r="V53">
+        <v>557.31600000000003</v>
+      </c>
+      <c r="W53">
+        <v>-6.0999999999999999E-2</v>
+      </c>
+      <c r="X53">
+        <v>-419.83800000000002</v>
+      </c>
+      <c r="Y53">
+        <v>45.17</v>
+      </c>
+      <c r="Z53">
+        <v>-24.669</v>
+      </c>
+      <c r="AA53">
+        <v>365.70100000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>7.0179999999999998</v>
+      </c>
+      <c r="D54">
+        <v>1854.1579999999999</v>
+      </c>
+      <c r="E54">
+        <v>259.74599999999998</v>
+      </c>
+      <c r="F54">
+        <v>576.49800000000005</v>
+      </c>
+      <c r="G54">
+        <v>956.37400000000002</v>
+      </c>
+      <c r="H54">
+        <v>20072.947</v>
+      </c>
+      <c r="I54">
+        <v>372.226</v>
+      </c>
+      <c r="J54">
+        <v>6578.3459999999995</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>4267.01</v>
+      </c>
+      <c r="O54">
+        <v>11264.682000000001</v>
+      </c>
+      <c r="P54">
+        <v>8141.7240000000002</v>
+      </c>
+      <c r="Q54">
+        <v>-4.88</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>63300</v>
+      </c>
+      <c r="T54">
+        <v>8808.2649999999994</v>
+      </c>
+      <c r="U54">
+        <v>204.68700000000001</v>
+      </c>
+      <c r="V54">
+        <v>181.964</v>
+      </c>
+      <c r="W54">
+        <v>-89.47</v>
+      </c>
+      <c r="X54">
+        <v>60.988</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="AA54">
+        <v>7.0179999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>26.457000000000001</v>
+      </c>
+      <c r="D55">
+        <v>1887.2239999999999</v>
+      </c>
+      <c r="E55">
+        <v>299.036</v>
+      </c>
+      <c r="F55">
+        <v>583.24400000000003</v>
+      </c>
+      <c r="G55">
+        <v>1010.933</v>
+      </c>
+      <c r="H55">
+        <v>20126.14</v>
+      </c>
+      <c r="I55">
+        <v>359.51799999999997</v>
+      </c>
+      <c r="J55">
+        <v>7473.875</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-1638.146</v>
+      </c>
+      <c r="N55">
+        <v>3382.779</v>
+      </c>
+      <c r="O55">
+        <v>11349.208000000001</v>
+      </c>
+      <c r="P55">
+        <v>8056.7169999999996</v>
+      </c>
+      <c r="Q55">
+        <v>11.821</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>8776.9320000000007</v>
+      </c>
+      <c r="U55">
+        <v>216.50800000000001</v>
+      </c>
+      <c r="V55">
+        <v>315.786</v>
+      </c>
+      <c r="W55">
+        <v>-76.263999999999996</v>
+      </c>
+      <c r="X55">
+        <v>-107.505</v>
+      </c>
+      <c r="Y55">
+        <v>47.008000000000003</v>
+      </c>
+      <c r="Z55">
+        <v>-34.26</v>
+      </c>
+      <c r="AA55">
+        <v>26.457000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>137.673</v>
+      </c>
+      <c r="D56">
+        <v>1980.0429999999999</v>
+      </c>
+      <c r="E56">
+        <v>293.51600000000002</v>
+      </c>
+      <c r="F56">
+        <v>649.36900000000003</v>
+      </c>
+      <c r="G56">
+        <v>978.34</v>
+      </c>
+      <c r="H56">
+        <v>20012.210999999999</v>
+      </c>
+      <c r="I56">
+        <v>331.46199999999999</v>
+      </c>
+      <c r="J56">
+        <v>7103.7730000000001</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>3549.42</v>
+      </c>
+      <c r="O56">
+        <v>11162.971</v>
+      </c>
+      <c r="P56">
+        <v>7645.2349999999997</v>
+      </c>
+      <c r="Q56">
+        <v>-31.245999999999999</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>8849.24</v>
+      </c>
+      <c r="U56">
+        <v>185.262</v>
+      </c>
+      <c r="V56">
+        <v>565.14300000000003</v>
+      </c>
+      <c r="W56">
+        <v>-55.593000000000004</v>
+      </c>
+      <c r="X56">
+        <v>-467.46100000000001</v>
+      </c>
+      <c r="Y56">
+        <v>46.883000000000003</v>
+      </c>
+      <c r="Z56">
+        <v>-34.625</v>
+      </c>
+      <c r="AA56">
+        <v>137.673</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>490.24799999999999</v>
+      </c>
+      <c r="D57">
+        <v>2388.7620000000002</v>
+      </c>
+      <c r="E57">
+        <v>252.91800000000001</v>
+      </c>
+      <c r="F57">
+        <v>961.88</v>
+      </c>
+      <c r="G57">
+        <v>860.226</v>
+      </c>
+      <c r="H57">
+        <v>19599.91</v>
+      </c>
+      <c r="I57">
+        <v>340.702</v>
+      </c>
+      <c r="J57">
+        <v>6218.7120000000004</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>3737.74</v>
+      </c>
+      <c r="O57">
+        <v>10578.882</v>
+      </c>
+      <c r="P57">
+        <v>7036.7619999999997</v>
+      </c>
+      <c r="Q57">
+        <v>-2.081</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>9021.0280000000002</v>
+      </c>
+      <c r="U57">
+        <v>183.18100000000001</v>
+      </c>
+      <c r="V57">
+        <v>578.63499999999999</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-557.26700000000005</v>
+      </c>
+      <c r="Y57">
+        <v>45.805</v>
+      </c>
+      <c r="Z57">
+        <v>-0.86299999999999999</v>
+      </c>
+      <c r="AA57">
+        <v>490.24799999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>109.768</v>
+      </c>
+      <c r="D58">
+        <v>1817.826</v>
+      </c>
+      <c r="E58">
+        <v>261.392</v>
+      </c>
+      <c r="F58">
+        <v>592.38099999999997</v>
+      </c>
+      <c r="G58">
+        <v>801.08299999999997</v>
+      </c>
+      <c r="H58">
+        <v>20713.189999999999</v>
+      </c>
+      <c r="I58">
+        <v>331.505</v>
+      </c>
+      <c r="J58">
+        <v>7710.0860000000002</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>3849.2469999999998</v>
+      </c>
+      <c r="O58">
+        <v>12428.831</v>
+      </c>
+      <c r="P58">
+        <v>8509.7160000000003</v>
+      </c>
+      <c r="Q58">
+        <v>6.06</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>63400</v>
+      </c>
+      <c r="T58">
+        <v>8284.3590000000004</v>
+      </c>
+      <c r="U58">
+        <v>189.24100000000001</v>
+      </c>
+      <c r="V58">
+        <v>284.19499999999999</v>
+      </c>
+      <c r="W58">
+        <v>-67.094999999999999</v>
+      </c>
+      <c r="X58">
+        <v>1149.713</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-118.84699999999999</v>
+      </c>
+      <c r="AA58">
+        <v>109.768</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>45.23</v>
+      </c>
+      <c r="D59">
+        <v>1815.5989999999999</v>
+      </c>
+      <c r="E59">
+        <v>221.673</v>
+      </c>
+      <c r="F59">
+        <v>592.98199999999997</v>
+      </c>
+      <c r="G59">
+        <v>951.20299999999997</v>
+      </c>
+      <c r="H59">
+        <v>20869.593000000001</v>
+      </c>
+      <c r="I59">
+        <v>336.86900000000003</v>
+      </c>
+      <c r="J59">
+        <v>7503.9440000000004</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-587.11099999999999</v>
+      </c>
+      <c r="N59">
+        <v>4336.2910000000002</v>
+      </c>
+      <c r="O59">
+        <v>12895.683000000001</v>
+      </c>
+      <c r="P59">
+        <v>8640.0339999999997</v>
+      </c>
+      <c r="Q59">
+        <v>40.463999999999999</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>7973.91</v>
+      </c>
+      <c r="U59">
+        <v>229.70500000000001</v>
+      </c>
+      <c r="V59">
+        <v>426.42700000000002</v>
+      </c>
+      <c r="W59">
+        <v>-131.745</v>
+      </c>
+      <c r="X59">
+        <v>19.652999999999999</v>
+      </c>
+      <c r="Y59">
+        <v>46.744999999999997</v>
+      </c>
+      <c r="Z59">
+        <v>-54.25</v>
+      </c>
+      <c r="AA59">
+        <v>45.23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>184.96700000000001</v>
+      </c>
+      <c r="D60">
+        <v>2058.3220000000001</v>
+      </c>
+      <c r="E60">
+        <v>212.45400000000001</v>
+      </c>
+      <c r="F60">
+        <v>741.91300000000001</v>
+      </c>
+      <c r="G60">
+        <v>913.39099999999996</v>
+      </c>
+      <c r="H60">
+        <v>21395.194</v>
+      </c>
+      <c r="I60">
+        <v>343.98099999999999</v>
+      </c>
+      <c r="J60">
+        <v>7610.1760000000004</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>4791.5379999999996</v>
+      </c>
+      <c r="O60">
+        <v>13074.954</v>
+      </c>
+      <c r="P60">
+        <v>8843.3080000000009</v>
+      </c>
+      <c r="Q60">
+        <v>-70.344999999999999</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>8320.24</v>
+      </c>
+      <c r="U60">
+        <v>159.36000000000001</v>
+      </c>
+      <c r="V60">
+        <v>613.91800000000001</v>
+      </c>
+      <c r="W60">
+        <v>-65.972999999999999</v>
+      </c>
+      <c r="X60">
+        <v>131.44999999999999</v>
+      </c>
+      <c r="Y60">
+        <v>44.555999999999997</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>184.96700000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>228.78700000000001</v>
+      </c>
+      <c r="D61">
+        <v>2523.1</v>
+      </c>
+      <c r="E61">
+        <v>241.63800000000001</v>
+      </c>
+      <c r="F61">
+        <v>1136.0740000000001</v>
+      </c>
+      <c r="G61">
+        <v>900.82600000000002</v>
+      </c>
+      <c r="H61">
+        <v>20958.848000000002</v>
+      </c>
+      <c r="I61">
+        <v>305.74700000000001</v>
+      </c>
+      <c r="J61">
+        <v>7636.1710000000003</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>4360.491</v>
+      </c>
+      <c r="O61">
+        <v>12703.062</v>
+      </c>
+      <c r="P61">
+        <v>8583.7430000000004</v>
+      </c>
+      <c r="Q61">
+        <v>-11.941000000000001</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>8255.7860000000001</v>
+      </c>
+      <c r="U61">
+        <v>147.41900000000001</v>
+      </c>
+      <c r="V61">
+        <v>567.59100000000001</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-322.02300000000002</v>
+      </c>
+      <c r="Y61">
+        <v>42.444000000000003</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>228.78700000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>206.79900000000001</v>
+      </c>
+      <c r="D62">
+        <v>1902.0530000000001</v>
+      </c>
+      <c r="E62">
+        <v>238.97200000000001</v>
+      </c>
+      <c r="F62">
+        <v>728.71199999999999</v>
+      </c>
+      <c r="G62">
+        <v>837.02200000000005</v>
+      </c>
+      <c r="H62">
+        <v>20782.043000000001</v>
+      </c>
+      <c r="I62">
+        <v>302.072</v>
+      </c>
+      <c r="J62">
+        <v>7695.0720000000001</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>4292.692</v>
+      </c>
+      <c r="O62">
+        <v>12719.004000000001</v>
+      </c>
+      <c r="P62">
+        <v>8594.6139999999996</v>
+      </c>
+      <c r="Q62">
+        <v>-25.853999999999999</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>65900</v>
+      </c>
+      <c r="T62">
+        <v>8063.0389999999998</v>
+      </c>
+      <c r="U62">
+        <v>121.565</v>
+      </c>
+      <c r="V62">
+        <v>338.43</v>
+      </c>
+      <c r="W62">
+        <v>-82.494</v>
+      </c>
+      <c r="X62">
+        <v>-82.591999999999999</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-1.913</v>
+      </c>
+      <c r="AA62">
+        <v>206.79900000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>99.14</v>
+      </c>
+      <c r="D63">
+        <v>1917.7950000000001</v>
+      </c>
+      <c r="E63">
+        <v>253.303</v>
+      </c>
+      <c r="F63">
+        <v>676.21699999999998</v>
+      </c>
+      <c r="G63">
+        <v>892.28599999999994</v>
+      </c>
+      <c r="H63">
+        <v>20963.413</v>
+      </c>
+      <c r="I63">
+        <v>371.85399999999998</v>
+      </c>
+      <c r="J63">
+        <v>7907.933</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-1382.27</v>
+      </c>
+      <c r="N63">
+        <v>4397.9440000000004</v>
+      </c>
+      <c r="O63">
+        <v>13075.644</v>
+      </c>
+      <c r="P63">
+        <v>8841.9850000000006</v>
+      </c>
+      <c r="Q63">
+        <v>-4.2050000000000001</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>7887.7690000000002</v>
+      </c>
+      <c r="U63">
+        <v>117.36</v>
+      </c>
+      <c r="V63">
+        <v>477.89600000000002</v>
+      </c>
+      <c r="W63">
+        <v>-162.88999999999999</v>
+      </c>
+      <c r="X63">
+        <v>-246.762</v>
+      </c>
+      <c r="Y63">
+        <v>38.561999999999998</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>99.14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>229.905</v>
+      </c>
+      <c r="D64">
+        <v>2105.2620000000002</v>
+      </c>
+      <c r="E64">
+        <v>215.804</v>
+      </c>
+      <c r="F64">
+        <v>794.67499999999995</v>
+      </c>
+      <c r="G64">
+        <v>857.93799999999999</v>
+      </c>
+      <c r="H64">
+        <v>22471.492999999999</v>
+      </c>
+      <c r="I64">
+        <v>319.60599999999999</v>
+      </c>
+      <c r="J64">
+        <v>9280.9079999999994</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>4373.6310000000003</v>
+      </c>
+      <c r="O64">
+        <v>14325.828</v>
+      </c>
+      <c r="P64">
+        <v>10212.969999999999</v>
+      </c>
+      <c r="Q64">
+        <v>57.804000000000002</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>8145.665</v>
+      </c>
+      <c r="U64">
+        <v>175.16399999999999</v>
+      </c>
+      <c r="V64">
+        <v>793.01599999999996</v>
+      </c>
+      <c r="W64">
+        <v>-80.667000000000002</v>
+      </c>
+      <c r="X64">
+        <v>1247.2249999999999</v>
+      </c>
+      <c r="Y64">
+        <v>36.651000000000003</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>229.905</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>693.25699999999995</v>
+      </c>
+      <c r="D65">
+        <v>2563.741</v>
+      </c>
+      <c r="E65">
+        <v>273.42200000000003</v>
+      </c>
+      <c r="F65">
+        <v>1223.6179999999999</v>
+      </c>
+      <c r="G65">
+        <v>803.06899999999996</v>
+      </c>
+      <c r="H65">
+        <v>22450.261999999999</v>
+      </c>
+      <c r="I65">
+        <v>259.02699999999999</v>
+      </c>
+      <c r="J65">
+        <v>8524.2469999999994</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>4500.57</v>
+      </c>
+      <c r="O65">
+        <v>13660.112999999999</v>
+      </c>
+      <c r="P65">
+        <v>9857.1740000000009</v>
+      </c>
+      <c r="Q65">
+        <v>3.2639999999999998</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>8790.1489999999994</v>
+      </c>
+      <c r="U65">
+        <v>178.428</v>
+      </c>
+      <c r="V65">
+        <v>730.04</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-403.51299999999998</v>
+      </c>
+      <c r="Y65">
+        <v>34.924999999999997</v>
+      </c>
+      <c r="Z65">
+        <v>-8.6110000000000007</v>
+      </c>
+      <c r="AA65">
+        <v>693.25699999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>261.08600000000001</v>
+      </c>
+      <c r="D66">
+        <v>1909.6030000000001</v>
+      </c>
+      <c r="E66">
+        <v>251.15700000000001</v>
+      </c>
+      <c r="F66">
+        <v>786.35199999999998</v>
+      </c>
+      <c r="G66">
+        <v>748.30499999999995</v>
+      </c>
+      <c r="H66">
+        <v>22310.324000000001</v>
+      </c>
+      <c r="I66">
+        <v>305.31299999999999</v>
+      </c>
+      <c r="J66">
+        <v>8159.38</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>4441.6009999999997</v>
+      </c>
+      <c r="O66">
+        <v>13188.912</v>
+      </c>
+      <c r="P66">
+        <v>9445.1149999999998</v>
+      </c>
+      <c r="Q66">
+        <v>-45.825000000000003</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>65900</v>
+      </c>
+      <c r="T66">
+        <v>9121.4120000000003</v>
+      </c>
+      <c r="U66">
+        <v>132.60300000000001</v>
+      </c>
+      <c r="V66">
+        <v>515.73800000000006</v>
+      </c>
+      <c r="W66">
+        <v>-102.93</v>
+      </c>
+      <c r="X66">
+        <v>-353.14100000000002</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-0.54400000000000004</v>
+      </c>
+      <c r="AA66">
+        <v>261.08600000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>214.726</v>
+      </c>
+      <c r="D67">
+        <v>2008.56</v>
+      </c>
+      <c r="E67">
+        <v>292.97500000000002</v>
+      </c>
+      <c r="F67">
+        <v>832.73599999999999</v>
+      </c>
+      <c r="G67">
+        <v>756.68899999999996</v>
+      </c>
+      <c r="H67">
+        <v>22017.257000000001</v>
+      </c>
+      <c r="I67">
+        <v>362.99200000000002</v>
+      </c>
+      <c r="J67">
+        <v>6862.63</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-1840.402</v>
+      </c>
+      <c r="N67">
+        <v>5271.7420000000002</v>
+      </c>
+      <c r="O67">
+        <v>12750.427</v>
+      </c>
+      <c r="P67">
+        <v>8622.6470000000008</v>
+      </c>
+      <c r="Q67">
+        <v>-23.294</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>9266.83</v>
+      </c>
+      <c r="U67">
+        <v>109.309</v>
+      </c>
+      <c r="V67">
+        <v>796.52599999999995</v>
+      </c>
+      <c r="W67">
+        <v>-102.94199999999999</v>
+      </c>
+      <c r="X67">
+        <v>-944.39400000000001</v>
+      </c>
+      <c r="Y67">
+        <v>32.046999999999997</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>214.726</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>369.52600000000001</v>
+      </c>
+      <c r="D68">
+        <v>2195.2739999999999</v>
+      </c>
+      <c r="E68">
+        <v>263.99200000000002</v>
+      </c>
+      <c r="F68">
+        <v>938.48900000000003</v>
+      </c>
+      <c r="G68">
+        <v>767.64099999999996</v>
+      </c>
+      <c r="H68">
+        <v>22024.168000000001</v>
+      </c>
+      <c r="I68">
+        <v>376.50799999999998</v>
+      </c>
+      <c r="J68">
+        <v>6502.268</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>5285.9530000000004</v>
+      </c>
+      <c r="O68">
+        <v>12340.76</v>
+      </c>
+      <c r="P68">
+        <v>8075.0510000000004</v>
+      </c>
+      <c r="Q68">
+        <v>21.167999999999999</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>9683.4079999999994</v>
+      </c>
+      <c r="U68">
+        <v>130.477</v>
+      </c>
+      <c r="V68">
+        <v>862.75400000000002</v>
+      </c>
+      <c r="W68">
+        <v>-103.09699999999999</v>
+      </c>
+      <c r="X68">
+        <v>-725.09900000000005</v>
+      </c>
+      <c r="Y68">
+        <v>31.263999999999999</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>369.52600000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>752.84199999999998</v>
+      </c>
+      <c r="D69">
+        <v>2569.5439999999999</v>
+      </c>
+      <c r="E69">
+        <v>285.33199999999999</v>
+      </c>
+      <c r="F69">
+        <v>1251.2750000000001</v>
+      </c>
+      <c r="G69">
+        <v>798.15200000000004</v>
+      </c>
+      <c r="H69">
+        <v>22099.313999999998</v>
+      </c>
+      <c r="I69">
+        <v>384.536</v>
+      </c>
+      <c r="J69">
+        <v>6098.6390000000001</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>5057.1120000000001</v>
+      </c>
+      <c r="O69">
+        <v>11663.825999999999</v>
+      </c>
+      <c r="P69">
+        <v>7644.8180000000002</v>
+      </c>
+      <c r="Q69">
+        <v>9.4730000000000008</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>10435.487999999999</v>
+      </c>
+      <c r="U69">
+        <v>139.94999999999999</v>
+      </c>
+      <c r="V69">
+        <v>795.32100000000003</v>
+      </c>
+      <c r="W69">
+        <v>-103.123</v>
+      </c>
+      <c r="X69">
+        <v>-700.21699999999998</v>
+      </c>
+      <c r="Y69">
+        <v>30.471</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>752.84199999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>288.03899999999999</v>
+      </c>
+      <c r="D70">
+        <v>2004.4670000000001</v>
+      </c>
+      <c r="E70">
+        <v>279.983</v>
+      </c>
+      <c r="F70">
+        <v>858.76599999999996</v>
+      </c>
+      <c r="G70">
+        <v>907.63699999999994</v>
+      </c>
+      <c r="H70">
+        <v>22360.925999999999</v>
+      </c>
+      <c r="I70">
+        <v>360.113</v>
+      </c>
+      <c r="J70">
+        <v>6397.4459999999999</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>4854.8729999999996</v>
+      </c>
+      <c r="O70">
+        <v>11658.623</v>
+      </c>
+      <c r="P70">
+        <v>7585.96</v>
+      </c>
+      <c r="Q70">
+        <v>-19.838000000000001</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>65900</v>
+      </c>
+      <c r="T70">
+        <v>10702.303</v>
+      </c>
+      <c r="U70">
+        <v>120.11199999999999</v>
+      </c>
+      <c r="V70">
+        <v>419.96499999999997</v>
+      </c>
+      <c r="W70">
+        <v>-128.29300000000001</v>
+      </c>
+      <c r="X70">
+        <v>-306.08600000000001</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-10.396000000000001</v>
+      </c>
+      <c r="AA70">
+        <v>288.03899999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>218.65299999999999</v>
+      </c>
+      <c r="D71">
+        <v>2027.7560000000001</v>
+      </c>
+      <c r="E71">
+        <v>291.99700000000001</v>
+      </c>
+      <c r="F71">
+        <v>851.73699999999997</v>
+      </c>
+      <c r="G71">
+        <v>1034.5260000000001</v>
+      </c>
+      <c r="H71">
+        <v>23970.972000000002</v>
+      </c>
+      <c r="I71">
+        <v>454.57600000000002</v>
+      </c>
+      <c r="J71">
+        <v>7672.902</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-1394.222</v>
+      </c>
+      <c r="N71">
+        <v>5195.1540000000005</v>
+      </c>
+      <c r="O71">
+        <v>13324.175999999999</v>
+      </c>
+      <c r="P71">
+        <v>8855.99</v>
+      </c>
+      <c r="Q71">
+        <v>-8.8670000000000009</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>10646.796</v>
+      </c>
+      <c r="U71">
+        <v>111.245</v>
+      </c>
+      <c r="V71">
+        <v>924.12199999999996</v>
+      </c>
+      <c r="W71">
+        <v>-127.84</v>
+      </c>
+      <c r="X71">
+        <v>711.85299999999995</v>
+      </c>
+      <c r="Y71">
+        <v>39.070999999999998</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>218.65299999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>466.29500000000002</v>
+      </c>
+      <c r="D72">
+        <v>2337.605</v>
+      </c>
+      <c r="E72">
+        <v>266.09699999999998</v>
+      </c>
+      <c r="F72">
+        <v>1023.194</v>
+      </c>
+      <c r="G72">
+        <v>1099.896</v>
+      </c>
+      <c r="H72">
+        <v>24057.036</v>
+      </c>
+      <c r="I72">
+        <v>418.61599999999999</v>
+      </c>
+      <c r="J72">
+        <v>7356.5659999999998</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>5502.35</v>
+      </c>
+      <c r="O72">
+        <v>13283.338</v>
+      </c>
+      <c r="P72">
+        <v>8571.0059999999994</v>
+      </c>
+      <c r="Q72">
+        <v>-2.2469999999999999</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>10773.698</v>
+      </c>
+      <c r="U72">
+        <v>108.998</v>
+      </c>
+      <c r="V72">
+        <v>1007.4640000000001</v>
+      </c>
+      <c r="W72">
+        <v>-126.80500000000001</v>
+      </c>
+      <c r="X72">
+        <v>-497.89600000000002</v>
+      </c>
+      <c r="Y72">
+        <v>36.814</v>
+      </c>
+      <c r="Z72">
+        <v>13.215</v>
+      </c>
+      <c r="AA72">
+        <v>466.29500000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>810.39099999999996</v>
+      </c>
+      <c r="D73">
+        <v>2796.1869999999999</v>
+      </c>
+      <c r="E73">
+        <v>305.108</v>
+      </c>
+      <c r="F73">
+        <v>1384.8230000000001</v>
+      </c>
+      <c r="G73">
+        <v>1359</v>
+      </c>
+      <c r="H73">
+        <v>27093.54</v>
+      </c>
+      <c r="I73">
+        <v>432.08600000000001</v>
+      </c>
+      <c r="J73">
+        <v>7594.7160000000003</v>
+      </c>
+      <c r="K73">
+        <v>998.83500000000004</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>7072.942</v>
+      </c>
+      <c r="O73">
+        <v>15217.635</v>
+      </c>
+      <c r="P73">
+        <v>10226.11</v>
+      </c>
+      <c r="Q73">
+        <v>145.82300000000001</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>11875.905000000001</v>
+      </c>
+      <c r="U73">
+        <v>254.821</v>
+      </c>
+      <c r="V73">
+        <v>815.39800000000002</v>
+      </c>
+      <c r="W73">
+        <v>-126.82</v>
+      </c>
+      <c r="X73">
+        <v>551.79700000000003</v>
+      </c>
+      <c r="Y73">
+        <v>103.946</v>
+      </c>
+      <c r="Z73">
+        <v>-15.194000000000001</v>
+      </c>
+      <c r="AA73">
+        <v>810.39099999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>315.70299999999997</v>
+      </c>
+      <c r="D74">
+        <v>2332.3009999999999</v>
+      </c>
+      <c r="E74">
+        <v>305.43200000000002</v>
+      </c>
+      <c r="F74">
+        <v>971.88800000000003</v>
+      </c>
+      <c r="G74">
+        <v>1242.0440000000001</v>
+      </c>
+      <c r="H74">
+        <v>27698.27</v>
+      </c>
+      <c r="I74">
+        <v>488.21199999999999</v>
+      </c>
+      <c r="J74">
+        <v>8264.893</v>
+      </c>
+      <c r="K74">
+        <v>775.48800000000006</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>7112.165</v>
+      </c>
+      <c r="O74">
+        <v>16050.789000000001</v>
+      </c>
+      <c r="P74">
+        <v>10818.165999999999</v>
+      </c>
+      <c r="Q74">
+        <v>33.030999999999999</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>76900</v>
+      </c>
+      <c r="T74">
+        <v>11647.481</v>
+      </c>
+      <c r="U74">
+        <v>287.85199999999998</v>
+      </c>
+      <c r="V74">
+        <v>732.15499999999997</v>
+      </c>
+      <c r="W74">
+        <v>-146.029</v>
+      </c>
+      <c r="X74">
+        <v>432.31900000000002</v>
+      </c>
+      <c r="Y74">
+        <v>130.94399999999999</v>
+      </c>
+      <c r="Z74">
+        <v>-11.978</v>
+      </c>
+      <c r="AA74">
+        <v>315.70299999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>249.68100000000001</v>
+      </c>
+      <c r="D75">
+        <v>2439.7669999999998</v>
+      </c>
+      <c r="E75">
+        <v>355.30099999999999</v>
+      </c>
+      <c r="F75">
+        <v>1052.05</v>
+      </c>
+      <c r="G75">
+        <v>1333.1220000000001</v>
+      </c>
+      <c r="H75">
+        <v>28720.048999999999</v>
+      </c>
+      <c r="I75">
+        <v>497.18</v>
+      </c>
+      <c r="J75">
+        <v>7475.5540000000001</v>
+      </c>
+      <c r="K75">
+        <v>1112.03</v>
+      </c>
+      <c r="L75">
+        <v>-4711.2079999999996</v>
+      </c>
+      <c r="M75">
+        <v>-1146.674</v>
+      </c>
+      <c r="N75">
+        <v>8105.9430000000002</v>
+      </c>
+      <c r="O75">
+        <v>16901.333999999999</v>
+      </c>
+      <c r="P75">
+        <v>11124.903</v>
+      </c>
+      <c r="Q75">
+        <v>-39.655000000000001</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>11818.715</v>
+      </c>
+      <c r="U75">
+        <v>248.197</v>
+      </c>
+      <c r="V75">
+        <v>1078.454</v>
+      </c>
+      <c r="W75">
+        <v>-146.81700000000001</v>
+      </c>
+      <c r="X75">
+        <v>-667.68100000000004</v>
+      </c>
+      <c r="Y75">
+        <v>802.49800000000005</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>249.68100000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>472.83</v>
+      </c>
+      <c r="D76">
+        <v>2806.6309999999999</v>
+      </c>
+      <c r="E76">
+        <v>317.27</v>
+      </c>
+      <c r="F76">
+        <v>1283.627</v>
+      </c>
+      <c r="G76">
+        <v>1282.9670000000001</v>
+      </c>
+      <c r="H76">
+        <v>29808.962</v>
+      </c>
+      <c r="I76">
+        <v>531.78800000000001</v>
+      </c>
+      <c r="J76">
+        <v>8778.1039999999994</v>
+      </c>
+      <c r="K76">
+        <v>1046.587</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>7586.14</v>
+      </c>
+      <c r="O76">
+        <v>17713.789000000001</v>
+      </c>
+      <c r="P76">
+        <v>11715.878000000001</v>
+      </c>
+      <c r="Q76">
+        <v>-13.196</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>12095.173000000001</v>
+      </c>
+      <c r="U76">
+        <v>235.001</v>
+      </c>
+      <c r="V76">
+        <v>1117.0730000000001</v>
+      </c>
+      <c r="W76">
+        <v>-146.38</v>
+      </c>
+      <c r="X76">
+        <v>318.78399999999999</v>
+      </c>
+      <c r="Y76">
+        <v>852.43700000000001</v>
+      </c>
+      <c r="Z76">
+        <v>-3.0459999999999998</v>
+      </c>
+      <c r="AA76">
+        <v>472.83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>883.24</v>
+      </c>
+      <c r="D77">
+        <v>3186.85</v>
+      </c>
+      <c r="E77">
+        <v>329.9</v>
+      </c>
+      <c r="F77">
+        <v>1581.1120000000001</v>
+      </c>
+      <c r="G77">
+        <v>1203.9570000000001</v>
+      </c>
+      <c r="H77">
+        <v>29825.460999999999</v>
+      </c>
+      <c r="I77">
+        <v>538.94899999999996</v>
+      </c>
+      <c r="J77">
+        <v>8700.5409999999993</v>
+      </c>
+      <c r="K77">
+        <v>922.20100000000002</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>7113.5339999999997</v>
+      </c>
+      <c r="O77">
+        <v>17285.16</v>
+      </c>
+      <c r="P77">
+        <v>11483.105</v>
+      </c>
+      <c r="Q77">
+        <v>41.728999999999999</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>12540.300999999999</v>
+      </c>
+      <c r="U77">
+        <v>276.73</v>
+      </c>
+      <c r="V77">
+        <v>911.54100000000005</v>
+      </c>
+      <c r="W77">
+        <v>-146.346</v>
+      </c>
+      <c r="X77">
+        <v>-366.012</v>
+      </c>
+      <c r="Y77">
+        <v>824.245</v>
+      </c>
+      <c r="Z77">
+        <v>-3.843</v>
+      </c>
+      <c r="AA77">
+        <v>883.24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>273.13600000000002</v>
+      </c>
+      <c r="D78">
+        <v>2517.413</v>
+      </c>
+      <c r="E78">
+        <v>279.88799999999998</v>
+      </c>
+      <c r="F78">
+        <v>1066.8879999999999</v>
+      </c>
+      <c r="G78">
+        <v>1162.6279999999999</v>
+      </c>
+      <c r="H78">
+        <v>30320.284</v>
+      </c>
+      <c r="I78">
+        <v>563.70600000000002</v>
+      </c>
+      <c r="J78">
+        <v>8281.5810000000001</v>
+      </c>
+      <c r="K78">
+        <v>1434.18</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>7952.8959999999997</v>
+      </c>
+      <c r="O78">
+        <v>17586.456999999999</v>
+      </c>
+      <c r="P78">
+        <v>11797.661</v>
+      </c>
+      <c r="Q78">
+        <v>-32.991999999999997</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>85300</v>
+      </c>
+      <c r="T78">
+        <v>12733.826999999999</v>
+      </c>
+      <c r="U78">
+        <v>243.738</v>
+      </c>
+      <c r="V78">
+        <v>609.298</v>
+      </c>
+      <c r="W78">
+        <v>-163.131</v>
+      </c>
+      <c r="X78">
+        <v>44.537999999999997</v>
+      </c>
+      <c r="Y78">
+        <v>798.33799999999997</v>
+      </c>
+      <c r="Z78">
+        <v>-18.68</v>
+      </c>
+      <c r="AA78">
+        <v>273.13600000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>-1444.479</v>
+      </c>
+      <c r="D79">
+        <v>2032.75</v>
+      </c>
+      <c r="E79">
+        <v>193.553</v>
+      </c>
+      <c r="F79">
+        <v>569.27700000000004</v>
+      </c>
+      <c r="G79">
+        <v>4594.201</v>
+      </c>
+      <c r="H79">
+        <v>33445.053</v>
+      </c>
+      <c r="I79">
+        <v>1414.394</v>
+      </c>
+      <c r="J79">
+        <v>12198.067999999999</v>
+      </c>
+      <c r="K79">
+        <v>343.55700000000002</v>
+      </c>
+      <c r="L79">
+        <v>-7494.0249999999996</v>
+      </c>
+      <c r="M79">
+        <v>-921.86699999999996</v>
+      </c>
+      <c r="N79">
+        <v>8982.3700000000008</v>
+      </c>
+      <c r="O79">
+        <v>22635.852999999999</v>
+      </c>
+      <c r="P79">
+        <v>16825.045999999998</v>
+      </c>
+      <c r="Q79">
+        <v>3647.0729999999999</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>10809.2</v>
+      </c>
+      <c r="U79">
+        <v>3890.8110000000001</v>
+      </c>
+      <c r="V79">
+        <v>198.71</v>
+      </c>
+      <c r="W79">
+        <v>-163.56299999999999</v>
+      </c>
+      <c r="X79">
+        <v>4790.2120000000004</v>
+      </c>
+      <c r="Y79">
+        <v>772.54499999999996</v>
+      </c>
+      <c r="Z79">
+        <v>-2</v>
+      </c>
+      <c r="AA79">
+        <v>-1444.479</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>-1639.2919999999999</v>
+      </c>
+      <c r="D80">
+        <v>175.60499999999999</v>
+      </c>
+      <c r="E80">
+        <v>178.59800000000001</v>
+      </c>
+      <c r="F80">
+        <v>-479.2</v>
+      </c>
+      <c r="G80">
+        <v>4684.4399999999996</v>
+      </c>
+      <c r="H80">
+        <v>33306.542999999998</v>
+      </c>
+      <c r="I80">
+        <v>661.42700000000002</v>
+      </c>
+      <c r="J80">
+        <v>17661.924999999999</v>
+      </c>
+      <c r="K80">
+        <v>368.952</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>4736.9080000000004</v>
+      </c>
+      <c r="O80">
+        <v>23757.769</v>
+      </c>
+      <c r="P80">
+        <v>19603.552</v>
+      </c>
+      <c r="Q80">
+        <v>255.88</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>9548.7739999999994</v>
+      </c>
+      <c r="U80">
+        <v>4146.6909999999998</v>
+      </c>
+      <c r="V80">
+        <v>-2247.5329999999999</v>
+      </c>
+      <c r="W80">
+        <v>-162.858</v>
+      </c>
+      <c r="X80">
+        <v>2753.9940000000001</v>
+      </c>
+      <c r="Y80">
+        <v>763.57799999999997</v>
+      </c>
+      <c r="Z80">
+        <v>-85.942999999999998</v>
+      </c>
+      <c r="AA80">
+        <v>-1639.2919999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>-1346.7560000000001</v>
+      </c>
+      <c r="D81">
+        <v>-33.688000000000002</v>
+      </c>
+      <c r="E81">
+        <v>139.44200000000001</v>
+      </c>
+      <c r="F81">
+        <v>-335.11799999999999</v>
+      </c>
+      <c r="G81">
+        <v>3531.7950000000001</v>
+      </c>
+      <c r="H81">
+        <v>31828.81</v>
+      </c>
+      <c r="I81">
+        <v>421.02300000000002</v>
+      </c>
+      <c r="J81">
+        <v>17593.468000000001</v>
+      </c>
+      <c r="K81">
+        <v>386.68299999999999</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>4625.4650000000001</v>
+      </c>
+      <c r="O81">
+        <v>23500.216</v>
+      </c>
+      <c r="P81">
+        <v>19681.013999999999</v>
+      </c>
+      <c r="Q81">
+        <v>-1129.903</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>8328.5939999999991</v>
+      </c>
+      <c r="U81">
+        <v>3016.788</v>
+      </c>
+      <c r="V81">
+        <v>-857.43200000000002</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>-74.444000000000003</v>
+      </c>
+      <c r="Y81">
+        <v>728.58500000000004</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>-1346.7560000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>-1366.9349999999999</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>34.137999999999998</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>254.648</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>-235.30600000000001</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>4311.7470000000003</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>32465.187000000002</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>353.42200000000003</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>17941.099999999999</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>409.31900000000002</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>4537.1210000000001</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>23704.518</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>20140.249</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>667.68600000000004</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>84900</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>8760.6689999999999</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>3684.4740000000002</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>-825.39800000000002</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>1880.0260000000001</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>725.38499999999999</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-12.666</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>-1366.9349999999999</v>
       </c>
     </row>
